--- a/Dif/Лабораторная работа 1.xlsx
+++ b/Dif/Лабораторная работа 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -7204,7 +7204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8787,7 +8787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Dif/Лабораторная работа 1.xlsx
+++ b/Dif/Лабораторная работа 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>i</t>
   </si>
@@ -49,12 +49,6 @@
     <t>B =</t>
   </si>
   <si>
-    <t>u1i</t>
-  </si>
-  <si>
-    <t>u2i</t>
-  </si>
-  <si>
     <t>p(x) =</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>6e^x</t>
-  </si>
-  <si>
-    <t>u1iточ</t>
   </si>
   <si>
     <t>k1</t>
@@ -94,13 +85,13 @@
     <t>l4</t>
   </si>
   <si>
-    <t>Ошибка Эйлера</t>
+    <t>u1</t>
   </si>
   <si>
-    <t>Ошибка Рунге-Кутта 2-го порядка</t>
+    <t>u2</t>
   </si>
   <si>
-    <t>Ошибка Рунге-Кутта 4-го порядка</t>
+    <t>u1точ</t>
   </si>
 </sst>
 </file>
@@ -265,7 +256,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="47">
     <dxf>
       <font>
         <strike val="0"/>
@@ -294,234 +285,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -660,25 +427,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -800,7 +548,7 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -920,10 +668,15 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -933,7 +686,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1009,12 +761,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1061,6 +821,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1070,7 +831,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1087,6 +847,20 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1208,6 +982,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1744,8 +1538,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2119,64 +1914,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11051709180756478</c:v>
+                  <c:v>0.10526073632568465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23259883221677705</c:v>
+                  <c:v>0.2215975138566286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36729285859640787</c:v>
+                  <c:v>0.35017592318117785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51568939036691552</c:v>
+                  <c:v>0.49228419813409274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67890742514698155</c:v>
+                  <c:v>0.64934611966876976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85807490159924871</c:v>
+                  <c:v>0.82293528231922874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0542996527442399</c:v>
+                  <c:v>1.014790870011737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2686250907950343</c:v>
+                  <c:v>1.2268351046313692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5019590096470883</c:v>
+                  <c:v>1.4611925493751228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7549532707380784</c:v>
+                  <c:v>1.72021146978713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0277915732855369</c:v>
+                  <c:v>2.0064874788331704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.319801338619</c:v>
+                  <c:v>2.3228897189832356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6287189992857916</c:v>
+                  <c:v>2.6725898649175424</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9492432371036972</c:v>
+                  <c:v>3.0590942665855909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2700406667980269</c:v>
+                  <c:v>3.4862795962336985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5671387744842349</c:v>
+                  <c:v>3.9584324183590374</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7881167570871108</c:v>
+                  <c:v>4.4802931742732381</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8103075513441862</c:v>
+                  <c:v>5.0571051728009619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3170412546217332</c:v>
+                  <c:v>5.6946693221781137</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4180370684075665</c:v>
+                  <c:v>6.3994055549672977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,8 +2412,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3290,8 +3086,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3853,64 +3650,64 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2083327296948951</c:v>
+                  <c:v>5.2241017961405358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7239178454643262</c:v>
+                  <c:v>7.7136657020687895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.581496584975849</c:v>
+                  <c:v>10.496610611585433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.820665805656718</c:v>
+                  <c:v>13.603791674183814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.486448546388232</c:v>
+                  <c:v>17.069309103756854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.629954251392881</c:v>
+                  <c:v>20.93084946499917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.309139563997331</c:v>
+                  <c:v>25.230062853213429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.589682476879521</c:v>
+                  <c:v>30.012979742463219</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.545984738407235</c:v>
+                  <c:v>35.33047167402885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.262319804421999</c:v>
+                  <c:v>41.238760395891006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.834146339377753</c:v>
+                  <c:v>47.799980548881322</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.369610364570121</c:v>
+                  <c:v>55.082801531051992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.991262686291449</c:v>
+                  <c:v>63.163114764092064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80.838022283956747</c:v>
+                  <c:v>72.124793240183692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93.067420978712804</c:v>
+                  <c:v>82.060530951098556</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.85817002991108</c:v>
+                  <c:v>93.072770600823091</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.41309542716955</c:v>
+                  <c:v>105.27472888657213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>139.96249568280078</c:v>
+                  <c:v>118.79152960954808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159.76798402509016</c:v>
+                  <c:v>133.76145595599888</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>182.12688621088122</c:v>
+                  <c:v>150.33733448182468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,8 +3953,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6767,31 +6565,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="57" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:F25"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="i" dataDxfId="56"/>
-    <tableColumn id="2" name="xi" dataDxfId="55"/>
-    <tableColumn id="3" name="ui" dataDxfId="54"/>
-    <tableColumn id="4" name="uiточ." dataDxfId="53"/>
-    <tableColumn id="5" name="f(xi; ui)" dataDxfId="52"/>
-    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="51"/>
+    <tableColumn id="1" name="i" dataDxfId="44"/>
+    <tableColumn id="2" name="xi" dataDxfId="43"/>
+    <tableColumn id="3" name="ui" dataDxfId="42"/>
+    <tableColumn id="4" name="uiточ." dataDxfId="41"/>
+    <tableColumn id="5" name="f(xi; ui)" dataDxfId="40"/>
+    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="H1:J22" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="H1:J22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="H1:J22"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="k1" dataDxfId="0">
+    <tableColumn id="1" name="k1" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица3[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="49">
-      <calculatedColumnFormula>0.1*((EXP(2*(B2+0.05)))-EXP((B2+(H2/2)))*J2)</calculatedColumnFormula>
+    <tableColumn id="2" name="k2" dataDxfId="0">
+      <calculatedColumnFormula>0.1*((EXP(2*(B2+0.05)))-EXP((B2+0.05))*(J2 + Таблица3[[#This Row],[k1]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ui" dataDxfId="48">
+    <tableColumn id="3" name="ui" dataDxfId="35">
       <calculatedColumnFormula xml:space="preserve"> J1 + I1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6800,22 +6598,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="L1:P22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="L1:P22" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="L1:P22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="k1" dataDxfId="1">
+    <tableColumn id="1" name="k1" dataDxfId="32">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица4[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="45">
+    <tableColumn id="2" name="k2" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + L2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="44">
+    <tableColumn id="3" name="k3" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + M2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="43">
+    <tableColumn id="4" name="k4" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.1)) - EXP(B2 + 0.1) * (P2 + N2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="ui" dataDxfId="42">
+    <tableColumn id="5" name="ui" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> P1 +  ((L1 + 2 * M1 + 2 * N1 + O1) / 6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6824,17 +6622,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Таблица9" displayName="Таблица9" ref="R1:T22" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="R1:T22"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Ошибка Эйлера" dataDxfId="12">
-      <calculatedColumnFormula xml:space="preserve"> ABS(D2 - C2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Ошибка Рунге-Кутта 2-го порядка" dataDxfId="11">
-      <calculatedColumnFormula xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Ошибка Рунге-Кутта 4-го порядка" dataDxfId="10">
-      <calculatedColumnFormula xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:E28"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="i" dataDxfId="25"/>
+    <tableColumn id="2" name="xi" dataDxfId="24"/>
+    <tableColumn id="3" name="u1" dataDxfId="23"/>
+    <tableColumn id="4" name="u2" dataDxfId="22"/>
+    <tableColumn id="5" name="u1точ" dataDxfId="21">
+      <calculatedColumnFormula xml:space="preserve"> -3 * EXP(B2) + 5.31 * EXP(B2 * SQRT(3)) + 5.31 *  EXP(-B2 * SQRT(3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6842,15 +6638,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:E28"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="i" dataDxfId="39"/>
-    <tableColumn id="2" name="xi" dataDxfId="38"/>
-    <tableColumn id="3" name="u1i" dataDxfId="37"/>
-    <tableColumn id="4" name="u2i" dataDxfId="36"/>
-    <tableColumn id="5" name="u1iточ" dataDxfId="35">
-      <calculatedColumnFormula xml:space="preserve"> -3 * EXP(B2) + 5.31 * EXP(B2 * SQRT(3)) + 5.31 *  EXP(-B2 * SQRT(3))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="G1:L22"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="k1" dataDxfId="18">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="k2" dataDxfId="17">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (((I2 + J2) / 2) + I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="l1" dataDxfId="16">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * L2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="l2" dataDxfId="15">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (L2 + I2)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="u1" dataDxfId="14">
+      <calculatedColumnFormula xml:space="preserve"> K1 + ((G1 + H1) / 2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="u2" dataDxfId="13">
+      <calculatedColumnFormula xml:space="preserve"> L1 +  (0.1 * (6 * EXP(B1) - (-3 * K1)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6858,84 +6665,41 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="G1:L22"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="k1" dataDxfId="32">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * L2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="31">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (((I2 + J2) / 2) + I2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="l1" dataDxfId="30">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * L2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="l2" dataDxfId="29">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (L2 + I2)))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="u1i" dataDxfId="28">
-      <calculatedColumnFormula xml:space="preserve"> K1 + ((G1 + H1) / 2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="u2i" dataDxfId="27">
-      <calculatedColumnFormula xml:space="preserve"> L1 +  (0.1 * (6 * EXP(B1) - (-3 * K1)))</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="N1:W22"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="k1" dataDxfId="24"/>
-    <tableColumn id="2" name="k2" dataDxfId="23">
+    <tableColumn id="1" name="k1" dataDxfId="10">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * W2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="k2" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + R2 / 2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="22">
+    <tableColumn id="3" name="k3" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + S2 / 2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="21">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2 / 2)))</calculatedColumnFormula>
+    <tableColumn id="4" name="k4" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="l1" dataDxfId="20">
+    <tableColumn id="5" name="l1" dataDxfId="7">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="l2" dataDxfId="19">
+    <tableColumn id="6" name="l2" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="l3" dataDxfId="18">
+    <tableColumn id="7" name="l3" dataDxfId="5">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="l4" dataDxfId="17">
+    <tableColumn id="8" name="l4" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="u1i" dataDxfId="16">
+    <tableColumn id="9" name="u1" dataDxfId="3">
       <calculatedColumnFormula xml:space="preserve"> V1 + ((N1 + 2 * O1 + 2 * P1 + Q1) / 6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="u2i" dataDxfId="15">
+    <tableColumn id="10" name="u2" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> W1 + ((R1 + 2 * S1 + 2 * T1 + U1) / 6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Таблица10" displayName="Таблица10" ref="Y1:AA22" totalsRowShown="0" headerRowDxfId="8" dataDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="Y1:AA22"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Ошибка Эйлера" dataDxfId="5">
-      <calculatedColumnFormula xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Ошибка Рунге-Кутта 2-го порядка" dataDxfId="4">
-      <calculatedColumnFormula xml:space="preserve"> ABS(K2 - E2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Ошибка Рунге-Кутта 4-го порядка" dataDxfId="3">
-      <calculatedColumnFormula xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7204,26 +6968,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
-    <col min="19" max="20" width="33.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="19" max="20" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7243,41 +7007,32 @@
         <v>4</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7304,8 +7059,8 @@
         <v>0.1</v>
       </c>
       <c r="I2" s="12">
-        <f>0.1*((EXP(2*(B2+0.05)))-EXP((B2+(H2/2)))*J2)</f>
-        <v>0.11051709180756478</v>
+        <f>0.1*((EXP(2*(B2+0.05)))-EXP((B2+0.05))*(J2 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.10526073632568465</v>
       </c>
       <c r="J2" s="13">
         <v>0</v>
@@ -7320,30 +7075,21 @@
         <v>0.10526073632568465</v>
       </c>
       <c r="N2" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + M2/2))</f>
+        <f t="shared" ref="N2:N22" si="0" xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + M2/2))</f>
         <v>0.10498421332344228</v>
       </c>
       <c r="O2" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.1)) - EXP(B2 + 0.1) * (P2 + N2))</f>
+        <f t="shared" ref="O2:O22" si="1" xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.1)) - EXP(B2 + 0.1) * (P2 + N2))</f>
         <v>0.11053772587380516</v>
       </c>
       <c r="P2" s="13">
         <v>0</v>
       </c>
-      <c r="R2" s="12">
-        <f xml:space="preserve"> ABS(D2 - C2)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0</v>
-      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7355,7 +7101,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D22" si="0" xml:space="preserve"> EXP(B3) - 1</f>
+        <f t="shared" ref="D3:D22" si="2" xml:space="preserve"> EXP(B3) - 1</f>
         <v>0.10517091807564771</v>
       </c>
       <c r="E3" s="3">
@@ -7363,20 +7109,20 @@
         <v>1.110885666352605</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="1" xml:space="preserve"> $B$24 * E3</f>
+        <f t="shared" ref="F3:F22" si="3" xml:space="preserve"> $B$24 * E3</f>
         <v>0.11108856663526051</v>
       </c>
       <c r="H3" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B3) - EXP(B3) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.10992624823441528</v>
+        <v>0.11050716535577942</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I22" si="2">0.1*((EXP(2*(B3+0.05)))-EXP((B3+(H3/2)))*J3)</f>
-        <v>0.12208174040921227</v>
+        <f>0.1*((EXP(2*(B3+0.05)))-EXP((B3+0.05))*(J3 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.11633677753094394</v>
       </c>
       <c r="J3" s="13">
         <f xml:space="preserve"> J2 + I2</f>
-        <v>0.11051709180756478</v>
+        <v>0.10526073632568465</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11">
@@ -7384,35 +7130,26 @@
         <v>0.11051705281864199</v>
       </c>
       <c r="M3" s="11">
-        <f t="shared" ref="M3:M22" si="3" xml:space="preserve"> 0.1 * (EXP(2 * (B3 + 0.05)) - EXP(B3 + 0.05) * (P3 + L3/2))</f>
+        <f t="shared" ref="M3:M22" si="4" xml:space="preserve"> 0.1 * (EXP(2 * (B3 + 0.05)) - EXP(B3 + 0.05) * (P3 + L3/2))</f>
         <v>0.11634659755522146</v>
       </c>
       <c r="N3" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B3 + 0.05)) - EXP(B3 + 0.05) * (P3 + M3/2))</f>
+        <f t="shared" si="0"/>
         <v>0.11600794932049774</v>
       </c>
       <c r="O3" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B3 + 0.1)) - EXP(B3 + 0.1) * (P3 + N3))</f>
+        <f t="shared" si="1"/>
         <v>0.12216757880626401</v>
       </c>
       <c r="P3" s="13">
         <f xml:space="preserve"> P2 +  ((L2 + 2 * M2 + 2 * N2 + O2) / 6)</f>
         <v>0.10517127086200984</v>
       </c>
-      <c r="R3" s="12">
-        <f t="shared" ref="R3:R22" si="4" xml:space="preserve"> ABS(D3 - C3)</f>
-        <v>5.1709180756477069E-3</v>
-      </c>
-      <c r="S3" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>5.3461737319170644E-3</v>
-      </c>
-      <c r="T3" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.5278636212332515E-7</v>
-      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7424,7 +7161,7 @@
         <v>0.21108856663526052</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22140275816016985</v>
       </c>
       <c r="E4" s="3">
@@ -7432,20 +7169,20 @@
         <v>1.2340005401368863</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12340005401368864</v>
       </c>
       <c r="H4" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B4) - EXP(B4) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.12077278424268643</v>
+        <v>0.12211648830153476</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="2"/>
-        <v>0.13469402637963082</v>
+        <f>0.1*((EXP(2*(B4+0.05)))-EXP((B4+0.05))*(J4 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.12857840932454923</v>
       </c>
       <c r="J4" s="13">
-        <f t="shared" ref="J4:J22" si="7" xml:space="preserve"> J3 + I3</f>
-        <v>0.23259883221677705</v>
+        <f t="shared" ref="J4:J21" si="7" xml:space="preserve"> J3 + I3</f>
+        <v>0.2215975138566286</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11">
@@ -7453,35 +7190,26 @@
         <v>0.12214017807148242</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12860179278163855</v>
       </c>
       <c r="N4" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B4 + 0.05)) - EXP(B4 + 0.05) * (P4 + M4/2))</f>
+        <f t="shared" si="0"/>
         <v>0.12818694890560436</v>
       </c>
       <c r="O4" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B4 + 0.1)) - EXP(B4 + 0.1) * (P4 + N4))</f>
+        <f t="shared" si="1"/>
         <v>0.13502209750256888</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" ref="P4:P22" si="8" xml:space="preserve"> P3 +  ((L3 + 2 * M3 + 2 * N3 + O3) / 6)</f>
         <v>0.22140355842473392</v>
       </c>
-      <c r="R4" s="12">
-        <f t="shared" si="4"/>
-        <v>1.0314191524909339E-2</v>
-      </c>
-      <c r="S4" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.1196074056607191E-2</v>
-      </c>
-      <c r="T4" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>8.0026456406034896E-7</v>
-      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7493,7 +7221,7 @@
         <v>0.33448862064894913</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34985880757600318</v>
       </c>
       <c r="E5" s="3">
@@ -7501,20 +7229,20 @@
         <v>1.3706063897735763</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13706063897735762</v>
       </c>
       <c r="H5" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B5) - EXP(B5) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.13263253002543804</v>
+        <v>0.13494307462833383</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="2"/>
-        <v>0.14839653177050768</v>
+        <f>0.1*((EXP(2*(B5+0.05)))-EXP((B5+0.05))*(J5 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.14210827495291486</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="7"/>
-        <v>0.36729285859640787</v>
+        <v>0.35017592318117785</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11">
@@ -7522,35 +7250,26 @@
         <v>0.13498569483612655</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14215005629779928</v>
       </c>
       <c r="N5" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B5 + 0.05)) - EXP(B5 + 0.05) * (P5 + M5/2))</f>
+        <f t="shared" si="0"/>
         <v>0.14164172065496669</v>
       </c>
       <c r="O5" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B5 + 0.1)) - EXP(B5 + 0.1) * (P5 + N5))</f>
+        <f t="shared" si="1"/>
         <v>0.14923062468237186</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" si="8"/>
         <v>0.34986018491615678</v>
       </c>
-      <c r="R5" s="12">
-        <f t="shared" si="4"/>
-        <v>1.5370186927054053E-2</v>
-      </c>
-      <c r="S5" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.7434051020404684E-2</v>
-      </c>
-      <c r="T5" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.3773401535965846E-6</v>
-      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -7562,7 +7281,7 @@
         <v>0.47154925962630678</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.49182469764127035</v>
       </c>
       <c r="E6" s="3">
@@ -7570,20 +7289,20 @@
         <v>1.5220720968274879</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15220720968274881</v>
       </c>
       <c r="H6" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B6) - EXP(B6) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.14562227596315333</v>
+        <v>0.14911392034574997</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="2"/>
-        <v>0.16321803478006602</v>
+        <f>0.1*((EXP(2*(B6+0.05)))-EXP((B6+0.05))*(J6 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.15706192153467705</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="7"/>
-        <v>0.51568939036691552</v>
+        <v>0.49228419813409274</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11">
@@ -7591,35 +7310,26 @@
         <v>0.14918215158095904</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15712830066624195</v>
       </c>
       <c r="N6" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B6 + 0.05)) - EXP(B6 + 0.05) * (P6 + M6/2))</f>
+        <f t="shared" si="0"/>
         <v>0.15650519854433342</v>
       </c>
       <c r="O6" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B6 + 0.1)) - EXP(B6 + 0.1) * (P6 + N6))</f>
+        <f t="shared" si="1"/>
         <v>0.16493630217191957</v>
       </c>
       <c r="P6" s="13">
         <f t="shared" si="8"/>
         <v>0.49182683048682851</v>
       </c>
-      <c r="R6" s="12">
-        <f t="shared" si="4"/>
-        <v>2.0275438014963565E-2</v>
-      </c>
-      <c r="S6" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.3864692725645176E-2</v>
-      </c>
-      <c r="T6" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.1328455581670624E-6</v>
-      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -7631,7 +7341,7 @@
         <v>0.62375646930905559</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64872127070012819</v>
       </c>
       <c r="E7" s="3">
@@ -7639,20 +7349,20 @@
         <v>1.6898812697723935</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16898812697723936</v>
       </c>
       <c r="H7" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B7) - EXP(B7) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.15989527157829617</v>
+        <v>0.16476910689145535</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>0.17916747645226713</v>
+        <f>0.1*((EXP(2*(B7+0.05)))-EXP((B7+0.05))*(J7 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.17358916265045901</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="7"/>
-        <v>0.67890742514698155</v>
+        <v>0.64934611966876976</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11">
@@ -7660,35 +7370,26 @@
         <v>0.16487161017132212</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17368803817990819</v>
       </c>
       <c r="N7" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B7 + 0.05)) - EXP(B7 + 0.05) * (P7 + M7/2))</f>
+        <f t="shared" si="0"/>
         <v>0.17292398315727356</v>
       </c>
       <c r="O7" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B7 + 0.1)) - EXP(B7 + 0.1) * (P7 + N7))</f>
+        <f t="shared" si="1"/>
         <v>0.18229759458173381</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="8"/>
         <v>0.6487244058491668</v>
       </c>
-      <c r="R7" s="12">
-        <f t="shared" si="4"/>
-        <v>2.49648013910726E-2</v>
-      </c>
-      <c r="S7" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.0186154446853353E-2</v>
-      </c>
-      <c r="T7" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.1351490386022363E-6</v>
-      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -7700,7 +7401,7 @@
         <v>0.7927445962862949</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.82211880039050889</v>
       </c>
       <c r="E8" s="3">
@@ -7708,20 +7409,20 @@
         <v>1.8756420899353052</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18756420899353055</v>
       </c>
       <c r="H8" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B8) - EXP(B8) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.17566025123893203</v>
+        <v>0.18206310733180095</v>
       </c>
       <c r="I8" s="12">
-        <f t="shared" si="2"/>
-        <v>0.19622475114499108</v>
+        <f>0.1*((EXP(2*(B8+0.05)))-EXP((B8+0.05))*(J8 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.19185558769250824</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" si="7"/>
-        <v>0.85807490159924871</v>
+        <v>0.82293528231922874</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11">
@@ -7729,35 +7430,26 @@
         <v>0.1822110637243812</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19199695914600687</v>
       </c>
       <c r="N8" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B8 + 0.05)) - EXP(B8 + 0.05) * (P8 + M8/2))</f>
+        <f t="shared" si="0"/>
         <v>0.19105969503457765</v>
       </c>
       <c r="O8" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B8 + 0.1)) - EXP(B8 + 0.1) * (P8 + N8))</f>
+        <f t="shared" si="1"/>
         <v>0.20149000068592132</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="8"/>
         <v>0.82212328042040339</v>
       </c>
-      <c r="R8" s="12">
-        <f t="shared" si="4"/>
-        <v>2.9374204104213986E-2</v>
-      </c>
-      <c r="S8" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.5956101208739821E-2</v>
-      </c>
-      <c r="T8" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.480029894504689E-6</v>
-      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -7769,7 +7461,7 @@
         <v>0.98030880527982545</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0137527074704766</v>
       </c>
       <c r="E9" s="3">
@@ -7777,20 +7469,20 @@
         <v>2.0811004560552777</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20811004560552779</v>
       </c>
       <c r="H9" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B9) - EXP(B9) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.19321011866457782</v>
+        <v>0.2011662104842219</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="2"/>
-        <v>0.21432543805079446</v>
+        <f>0.1*((EXP(2*(B9+0.05)))-EXP((B9+0.05))*(J9 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.21204423461963234</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="7"/>
-        <v>1.0542996527442399</v>
+        <v>1.014790870011737</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11">
@@ -7798,35 +7490,26 @@
         <v>0.20137400173140746</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21224068484819125</v>
       </c>
       <c r="N9" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B9 + 0.05)) - EXP(B9 + 0.05) * (P9 + M9/2))</f>
+        <f t="shared" si="0"/>
         <v>0.21109044643125349</v>
       </c>
       <c r="O9" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B9 + 0.1)) - EXP(B9 + 0.1) * (P9 + N9))</f>
+        <f t="shared" si="1"/>
         <v>0.22270798296112143</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="8"/>
         <v>1.0137590092156485</v>
       </c>
-      <c r="R9" s="12">
-        <f t="shared" si="4"/>
-        <v>3.3443902190651187E-2</v>
-      </c>
-      <c r="S9" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.0546945273763235E-2</v>
-      </c>
-      <c r="T9" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>6.3017451719105111E-6</v>
-      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -7838,7 +7521,7 @@
         <v>1.1884188508853533</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2255409284924679</v>
       </c>
       <c r="E10" s="3">
@@ -7846,20 +7529,20 @@
         <v>2.3081576315577741</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23081576315577743</v>
       </c>
       <c r="H10" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B10) - EXP(B10) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.21296553619182934</v>
+        <v>0.22226606865266635</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="2"/>
-        <v>0.23333391885205398</v>
+        <f>0.1*((EXP(2*(B10+0.05)))-EXP((B10+0.05))*(J10 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.2343574447437535</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="7"/>
-        <v>1.2686250907950343</v>
+        <v>1.2268351046313692</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11">
@@ -7867,35 +7550,26 @@
         <v>0.22255213691069856</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23462471510004637</v>
       </c>
       <c r="N10" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B10 + 0.05)) - EXP(B10 + 0.05) * (P10 + M10/2))</f>
+        <f t="shared" si="0"/>
         <v>0.23321243662227947</v>
       </c>
       <c r="O10" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B10 + 0.1)) - EXP(B10 + 0.1) * (P10 + N10))</f>
+        <f t="shared" si="1"/>
         <v>0.2461671532702035</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="8"/>
         <v>1.2255497170908849</v>
       </c>
-      <c r="R10" s="12">
-        <f t="shared" si="4"/>
-        <v>3.7122077607114612E-2</v>
-      </c>
-      <c r="S10" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.3084162302566398E-2</v>
-      </c>
-      <c r="T10" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>8.7885984170199549E-6</v>
-      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -7907,7 +7581,7 @@
         <v>1.4192346140411307</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4596031111569499</v>
       </c>
       <c r="E11" s="3">
@@ -7915,20 +7589,20 @@
         <v>2.5588935922557483</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25588935922557482</v>
       </c>
       <c r="H11" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B11) - EXP(B11) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.23554244114547573</v>
+        <v>0.24556937239705398</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="2"/>
-        <v>0.25299426109099005</v>
+        <f>0.1*((EXP(2*(B11+0.05)))-EXP((B11+0.05))*(J11 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.25901892041200725</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="7"/>
-        <v>1.5019590096470883</v>
+        <v>1.4611925493751228</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11">
@@ -7936,35 +7610,26 @@
         <v>0.24595730920169695</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25937659256480039</v>
       </c>
       <c r="N11" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B11 + 0.05)) - EXP(B11 + 0.05) * (P11 + M11/2))</f>
+        <f t="shared" si="0"/>
         <v>0.25764167403414673</v>
       </c>
       <c r="O11" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B11 + 0.1)) - EXP(B11 + 0.1) * (P11 + N11))</f>
+        <f t="shared" si="1"/>
         <v>0.27210676280491447</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="8"/>
         <v>1.4596153160284773</v>
       </c>
-      <c r="R11" s="12">
-        <f t="shared" si="4"/>
-        <v>4.0368497115819135E-2</v>
-      </c>
-      <c r="S11" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.2355898490138433E-2</v>
-      </c>
-      <c r="T11" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.2204871527421446E-5</v>
-      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -7976,7 +7641,7 @@
         <v>1.6751239732667056</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7182818284590451</v>
       </c>
       <c r="E12" s="3">
@@ -7984,20 +7649,20 @@
         <v>2.8355970419836494</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28355970419836496</v>
       </c>
       <c r="H12" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B12) - EXP(B12) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.26185985132885653</v>
+        <v>0.27130365195014694</v>
       </c>
       <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>0.27283830254745833</v>
+        <f>0.1*((EXP(2*(B12+0.05)))-EXP((B12+0.05))*(J12 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.28627600904604028</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="7"/>
-        <v>1.7549532707380784</v>
+        <v>1.72021146978713</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11">
@@ -8005,35 +7670,26 @@
         <v>0.27182358303186521</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28674830848250882</v>
       </c>
       <c r="N12" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B12 + 0.05)) - EXP(B12 + 0.05) * (P12 + M12/2))</f>
+        <f t="shared" si="0"/>
         <v>0.28461582556396803</v>
       </c>
       <c r="O12" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B12 + 0.1)) - EXP(B12 + 0.1) * (P12 + N12))</f>
+        <f t="shared" si="1"/>
         <v>0.30079255819691186</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="8"/>
         <v>1.7182987502292282</v>
       </c>
-      <c r="R12" s="12">
-        <f t="shared" si="4"/>
-        <v>4.31578551923395E-2</v>
-      </c>
-      <c r="S12" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.6671442279033295E-2</v>
-      </c>
-      <c r="T12" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.6921770183087048E-5</v>
-      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8045,7 +7701,7 @@
         <v>1.9586836774650704</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0041660239464334</v>
       </c>
       <c r="E13" s="3">
@@ -8053,20 +7709,20 @@
         <v>3.1408025439351031</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31408025439351034</v>
       </c>
       <c r="H13" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B13) - EXP(B13) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.29331909513248278</v>
+        <v>0.29971919880495729</v>
       </c>
       <c r="I13" s="12">
-        <f t="shared" si="2"/>
-        <v>0.29200976533346285</v>
+        <f>0.1*((EXP(2*(B13+0.05)))-EXP((B13+0.05))*(J13 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.31640224015006502</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="7"/>
-        <v>2.0277915732855369</v>
+        <v>2.0064874788331704</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11">
@@ -8074,35 +7730,26 @@
         <v>0.30040955426973881</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.317018977109713</v>
       </c>
       <c r="N13" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B13 + 0.05)) - EXP(B13 + 0.05) * (P13 + M13/2))</f>
+        <f t="shared" si="0"/>
         <v>0.31439618903735067</v>
       </c>
       <c r="O13" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B13 + 0.1)) - EXP(B13 + 0.1) * (P13 + N13))</f>
+        <f t="shared" si="1"/>
         <v>0.3325200847069929</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="8"/>
         <v>2.0041894851161834</v>
       </c>
-      <c r="R13" s="12">
-        <f t="shared" si="4"/>
-        <v>4.5482346481362956E-2</v>
-      </c>
-      <c r="S13" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.3625549339103546E-2</v>
-      </c>
-      <c r="T13" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.3461169750049748E-5</v>
-      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -8114,7 +7761,7 @@
         <v>2.2727639318585808</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3201169227365472</v>
       </c>
       <c r="E14" s="3">
@@ -8122,20 +7769,20 @@
         <v>3.4773343890926744</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34773343890926744</v>
       </c>
       <c r="H14" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B14) - EXP(B14) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.33211646989057642</v>
+        <v>0.33109109149946181</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="2"/>
-        <v>0.30891766066679144</v>
+        <f>0.1*((EXP(2*(B14+0.05)))-EXP((B14+0.05))*(J14 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.34970014593430698</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="7"/>
-        <v>2.319801338619</v>
+        <v>2.3228897189832356</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
@@ -8143,35 +7790,26 @@
         <v>0.33200088277262252</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35049780902536426</v>
       </c>
       <c r="N14" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B14 + 0.05)) - EXP(B14 + 0.05) * (P14 + M14/2))</f>
+        <f t="shared" si="0"/>
         <v>0.34726977821131694</v>
       </c>
       <c r="O14" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B14 + 0.1)) - EXP(B14 + 0.1) * (P14 + N14))</f>
+        <f t="shared" si="1"/>
         <v>0.36761854385000048</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="8"/>
         <v>2.3201494803279932</v>
       </c>
-      <c r="R14" s="12">
-        <f t="shared" si="4"/>
-        <v>4.7352990877966405E-2</v>
-      </c>
-      <c r="S14" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.155841175472851E-4</v>
-      </c>
-      <c r="T14" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.2557591445936396E-5</v>
-      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -8183,7 +7821,7 @@
         <v>2.6204973707678483</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6692966676192444</v>
       </c>
       <c r="E15" s="3">
@@ -8191,20 +7829,20 @@
         <v>3.8483557649382334</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.38483557649382338</v>
       </c>
       <c r="H15" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B15) - EXP(B15) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.38181881708149423</v>
+        <v>0.36572129497467876</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.32052423781790562</v>
+        <f>0.1*((EXP(2*(B15+0.05)))-EXP((B15+0.05))*(J15 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.38650440166804878</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="7"/>
-        <v>2.6287189992857916</v>
+        <v>2.6725898649175424</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
@@ -8212,35 +7850,26 @@
         <v>0.36691306457975603</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38752741648233935</v>
       </c>
       <c r="N15" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B15 + 0.05)) - EXP(B15 + 0.05) * (P15 + M15/2))</f>
+        <f t="shared" si="0"/>
         <v>0.38355150011594952</v>
       </c>
       <c r="O15" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B15 + 0.1)) - EXP(B15 + 0.1) * (P15 + N15))</f>
+        <f t="shared" si="1"/>
         <v>0.40645535000263777</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="8"/>
         <v>2.6693419138439909</v>
       </c>
-      <c r="R15" s="12">
-        <f t="shared" si="4"/>
-        <v>4.8799296851396168E-2</v>
-      </c>
-      <c r="S15" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.0577668333452888E-2</v>
-      </c>
-      <c r="T15" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.5246224746442465E-5</v>
-      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -8252,7 +7881,7 @@
         <v>3.0053329472616719</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0551999668446745</v>
       </c>
       <c r="E16" s="3">
@@ -8260,20 +7889,20 @@
         <v>4.2574207030043087</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42574207030043087</v>
       </c>
       <c r="H16" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B16) - EXP(B16) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.44848756937772549</v>
+        <v>0.40394078026644265</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.32079742969432967</v>
+        <f>0.1*((EXP(2*(B16+0.05)))-EXP((B16+0.05))*(J16 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.42718532964810763</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" si="7"/>
-        <v>2.9492432371036972</v>
+        <v>3.0590942665855909</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
@@ -8281,35 +7910,26 @@
         <v>0.4054944536709586</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42848748720935231</v>
       </c>
       <c r="N16" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B16 + 0.05)) - EXP(B16 + 0.05) * (P16 + M16/2))</f>
+        <f t="shared" si="0"/>
         <v>0.42358639045808782</v>
       </c>
       <c r="O16" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B16 + 0.1)) - EXP(B16 + 0.1) * (P16 + N16))</f>
+        <f t="shared" si="1"/>
         <v>0.44944158336658102</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="8"/>
         <v>3.0552629551404862</v>
       </c>
-      <c r="R16" s="12">
-        <f t="shared" si="4"/>
-        <v>4.9867019583002659E-2</v>
-      </c>
-      <c r="S16" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0.10595672974097736</v>
-      </c>
-      <c r="T16" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>6.2988295811639006E-5</v>
-      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -8321,7 +7941,7 @@
         <v>3.4310750175621028</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4816890703380645</v>
       </c>
       <c r="E17" s="3">
@@ -8329,20 +7949,20 @@
         <v>4.7085255174696083</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.47085255174696083</v>
       </c>
       <c r="H17" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B17) - EXP(B17) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.54302314072379543</v>
+        <v>0.44611157606044999</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.29709810768620815</v>
+        <f>0.1*((EXP(2*(B17+0.05)))-EXP((B17+0.05))*(J17 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.47215282212533866</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="7"/>
-        <v>3.2700406667980269</v>
+        <v>3.4862795962336985</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11">
@@ -8350,35 +7970,26 @@
         <v>0.44812953530666494</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47379886661363813</v>
       </c>
       <c r="N17" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B17 + 0.05)) - EXP(B17 + 0.05) * (P17 + M17/2))</f>
+        <f t="shared" si="0"/>
         <v>0.46775185216064552</v>
       </c>
       <c r="O17" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B17 + 0.1)) - EXP(B17 + 0.1) * (P17 + N17))</f>
+        <f t="shared" si="1"/>
         <v>0.49703861248619713</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="8"/>
         <v>3.4817769205358893</v>
       </c>
-      <c r="R17" s="12">
-        <f t="shared" si="4"/>
-        <v>5.061405277596176E-2</v>
-      </c>
-      <c r="S17" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0.21164840354003767</v>
-      </c>
-      <c r="T17" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>8.7850197824757004E-5</v>
-      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -8390,7 +8001,7 @@
         <v>3.9019275693090636</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9530324243951149</v>
       </c>
       <c r="E18" s="3">
@@ -8398,20 +8009,20 @@
         <v>5.2061564286803446</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52061564286803452</v>
       </c>
       <c r="H18" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B18) - EXP(B18) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.68643761847718854</v>
+        <v>0.49262860792002705</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="2"/>
-        <v>0.22097798260287577</v>
+        <f>0.1*((EXP(2*(B18+0.05)))-EXP((B18+0.05))*(J18 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.52186075591420045</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="7"/>
-        <v>3.5671387744842349</v>
+        <v>3.9584324183590374</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11">
@@ -8419,35 +8030,26 @@
         <v>0.49524243883300834</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52392809256205375</v>
       </c>
       <c r="N18" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B18 + 0.05)) - EXP(B18 + 0.05) * (P18 + M18/2))</f>
+        <f t="shared" si="0"/>
         <v>0.51645981154722342</v>
       </c>
       <c r="O18" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B18 + 0.1)) - EXP(B18 + 0.1) * (P18 + N18))</f>
+        <f t="shared" si="1"/>
         <v>0.54976626963392694</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="8"/>
         <v>3.9531551847594608</v>
       </c>
-      <c r="R18" s="12">
-        <f t="shared" si="4"/>
-        <v>5.1104855086051337E-2</v>
-      </c>
-      <c r="S18" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0.38589364991088004</v>
-      </c>
-      <c r="T18" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.2276036434588633E-4</v>
-      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -8459,7 +8061,7 @@
         <v>4.4225432121770982</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4739473917271999</v>
       </c>
       <c r="E19" s="3">
@@ -8467,20 +8069,20 @@
         <v>5.7553311662993529</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57553311662993534</v>
       </c>
       <c r="H19" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B19) - EXP(B19) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.92281482053819208</v>
+        <v>0.54392109119108412</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="2"/>
-        <v>2.2190794257075198E-2</v>
+        <f>0.1*((EXP(2*(B19+0.05)))-EXP((B19+0.05))*(J19 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.57681199852772413</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="7"/>
-        <v>3.7881167570871108</v>
+        <v>4.4802931742732381</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11">
@@ -8488,35 +8090,26 @@
         <v>0.54730065343214707</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5793924327343497</v>
       </c>
       <c r="N19" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B19 + 0.05)) - EXP(B19 + 0.05) * (P19 + M19/2))</f>
+        <f t="shared" si="0"/>
         <v>0.57015866078183741</v>
       </c>
       <c r="O19" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B19 + 0.1)) - EXP(B19 + 0.1) * (P19 + N19))</f>
+        <f t="shared" si="1"/>
         <v>0.60821312446438291</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="8"/>
         <v>4.4741192708737092</v>
       </c>
-      <c r="R19" s="12">
-        <f t="shared" si="4"/>
-        <v>5.1404179550101681E-2</v>
-      </c>
-      <c r="S19" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>0.68583063464008909</v>
-      </c>
-      <c r="T19" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.7187914650929059E-4</v>
-      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -8528,7 +8121,7 @@
         <v>4.9980763288070333</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0496474644129465</v>
       </c>
       <c r="E20" s="3">
@@ -8536,20 +8129,20 @@
         <v>6.3616346541681494</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63616346541681501</v>
       </c>
       <c r="H20" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B20) - EXP(B20) * Таблица3[[#This Row],[ui]])</f>
-        <v>1.354721702705513</v>
+        <v>0.60045309577730532</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.49326629672245303</v>
+        <f>0.1*((EXP(2*(B20+0.05)))-EXP((B20+0.05))*(J20 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.63756414937715178</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" si="7"/>
-        <v>3.8103075513441862</v>
+        <v>5.0571051728009619</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11">
@@ -8557,35 +8150,26 @@
         <v>0.6048188689030316</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.64076548401975164</v>
       </c>
       <c r="N20" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B20 + 0.05)) - EXP(B20 + 0.05) * (P20 + M20/2))</f>
+        <f t="shared" si="0"/>
         <v>0.62933478479021265</v>
       </c>
       <c r="O20" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B20 + 0.1)) - EXP(B20 + 0.1) * (P20 + N20))</f>
+        <f t="shared" si="1"/>
         <v>0.67304964394219202</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="8"/>
         <v>5.0498885983618598</v>
       </c>
-      <c r="R20" s="12">
-        <f t="shared" si="4"/>
-        <v>5.1571135605913199E-2</v>
-      </c>
-      <c r="S20" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>1.2393399130687603</v>
-      </c>
-      <c r="T20" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.4113394891323026E-4</v>
-      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -8597,7 +8181,7 @@
         <v>5.6342397942238485</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6858944422792685</v>
       </c>
       <c r="E21" s="3">
@@ -8605,20 +8189,20 @@
         <v>7.0312519666308972</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70312519666308981</v>
       </c>
       <c r="H21" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B21) - EXP(B21) * Таблица3[[#This Row],[ui]])</f>
-        <v>2.252379680421432</v>
+        <v>0.6627226521531917</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.8990041862141667</v>
+        <f>0.1*((EXP(2*(B21+0.05)))-EXP((B21+0.05))*(J21 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.70473623278918396</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="7"/>
-        <v>3.3170412546217332</v>
+        <v>5.6946693221781137</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11">
@@ -8626,35 +8210,26 @@
         <v>0.66836279385932407</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70868341104617372</v>
       </c>
       <c r="N21" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B21 + 0.05)) - EXP(B21 + 0.05) * (P21 + M21/2))</f>
+        <f t="shared" si="0"/>
         <v>0.69451335998302854</v>
       </c>
       <c r="O21" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B21 + 0.1)) - EXP(B21 + 0.1) * (P21 + N21))</f>
+        <f t="shared" si="1"/>
         <v>0.74504539742137865</v>
       </c>
       <c r="P21" s="13">
         <f t="shared" si="8"/>
         <v>5.6862334401060517</v>
       </c>
-      <c r="R21" s="12">
-        <f t="shared" si="4"/>
-        <v>5.1654648055420083E-2</v>
-      </c>
-      <c r="S21" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>2.3688531876575354</v>
-      </c>
-      <c r="T21" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>3.3899782678314949E-4</v>
-      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -8666,7 +8241,7 @@
         <v>6.3373649908869378</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3890560989306504</v>
       </c>
       <c r="E22" s="3">
@@ -8674,20 +8249,20 @@
         <v>7.7710045960815251</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77710045960815255</v>
       </c>
       <c r="H22" s="12">
         <f xml:space="preserve"> 0.1 * (EXP(2 * B22) - EXP(B22) * Таблица3[[#This Row],[ui]])</f>
-        <v>4.4120194584317565</v>
+        <v>0.73125833876824453</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" si="2"/>
-        <v>-3.4793415038642652</v>
+        <f>0.1*((EXP(2*(B22+0.05)))-EXP((B22+0.05))*(J22 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.77901668778688349</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="7"/>
-        <v>1.4180370684075665</v>
+        <f xml:space="preserve"> J21 + I21</f>
+        <v>6.3994055549672977</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11">
@@ -8695,55 +8270,37 @@
         <v>0.73855268635839555</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78385193603956371</v>
       </c>
       <c r="N22" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B22 + 0.05)) - EXP(B22 + 0.05) * (P22 + M22/2))</f>
+        <f t="shared" si="0"/>
         <v>0.76625793145390309</v>
       </c>
       <c r="O22" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B22 + 0.1)) - EXP(B22 + 0.1) * (P22 + N22))</f>
+        <f t="shared" si="1"/>
         <v>0.82509204827574301</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="8"/>
         <v>6.3895337289959029</v>
       </c>
-      <c r="R22" s="12">
-        <f t="shared" si="4"/>
-        <v>5.1691108043712575E-2</v>
-      </c>
-      <c r="S22" s="12">
-        <f xml:space="preserve"> ABS(Таблица3[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.9710190305230837</v>
-      </c>
-      <c r="T22" s="12">
-        <f xml:space="preserve"> ABS(Таблица4[[#This Row],[ui]] - Таблица1[[#This Row],[uiточ.]])</f>
-        <v>4.7763006525247675E-4</v>
-      </c>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="R23" s="9">
-        <f>SUM(R2:R22)</f>
-        <v>0.7591037050546745</v>
-      </c>
-      <c r="S23" s="9">
-        <f>SUM(S2:S22)</f>
-        <v>10.319702046407137</v>
-      </c>
-      <c r="T23" s="9">
-        <f>SUM(T2:T22)</f>
-        <v>1.6610002322533512E-3</v>
-      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -8756,7 +8313,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8764,7 +8321,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J58">
         <f xml:space="preserve"> EXP(1)</f>
         <v>2.7182818284590451</v>
@@ -8774,11 +8331,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8787,22 +8343,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
     <col min="26" max="26" width="37" customWidth="1"/>
-    <col min="27" max="27" width="33.7109375" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -8810,75 +8366,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="11" t="s">
+      <c r="T1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -8922,6 +8472,7 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * W2))</f>
         <v>2.1</v>
       </c>
       <c r="O2" s="11">
@@ -8933,8 +8484,8 @@
         <v>2.2253770564994571</v>
       </c>
       <c r="Q2" s="11">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2 / 2)))</f>
-        <v>2.2577169495192311</v>
+        <f t="shared" ref="Q2:Q22" si="0" xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2)))</f>
+        <v>2.352331348193073</v>
       </c>
       <c r="R2" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -8958,20 +8509,11 @@
       <c r="W2" s="11">
         <v>5</v>
       </c>
-      <c r="Y2" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="12">
-        <f xml:space="preserve"> ABS(K2 - E2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>0</v>
-      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -8992,11 +8534,11 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12">
-        <f t="shared" ref="G3:G22" si="0" xml:space="preserve"> 0.1 * L3</f>
+        <f t="shared" ref="G3:G22" si="1" xml:space="preserve"> 0.1 * L3</f>
         <v>0.65</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H22" si="1" xml:space="preserve"> 0.1 * (((I3 + J3) / 2) + I3)</f>
+        <f xml:space="preserve"> 0.1 * (((I3 + J3) / 2) + I3)</f>
         <v>0.56530400363429423</v>
       </c>
       <c r="I3" s="12">
@@ -9017,19 +8559,20 @@
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11">
-        <v>2.6131025508453889</v>
+        <f t="shared" ref="N3:N22" si="4" xml:space="preserve"> 0.1 *  (6 * EXP(B3) - (-3 * W3))</f>
+        <v>2.3524102099527808</v>
       </c>
       <c r="O3" s="11">
-        <f t="shared" ref="O3:O21" si="4" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + R3 / 2)))</f>
+        <f t="shared" ref="O3:O21" si="5" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + R3 / 2)))</f>
         <v>2.4858735873711706</v>
       </c>
       <c r="P3" s="11">
-        <f t="shared" ref="P3:P22" si="5" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + S3 / 2)))</f>
+        <f t="shared" ref="P3:P22" si="6" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + S3 / 2)))</f>
         <v>2.4909732865899077</v>
       </c>
       <c r="Q3" s="11">
-        <f t="shared" ref="Q3:Q22" si="6" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.1) - (-3 * (W3 + T3 / 2)))</f>
-        <v>2.5267143958490399</v>
+        <f t="shared" si="0"/>
+        <v>2.6312794776945854</v>
       </c>
       <c r="R3" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9049,26 +8592,17 @@
       </c>
       <c r="V3" s="13">
         <f xml:space="preserve"> V2 + ((N2 + 2 * O2 + 2 * P2 + Q2) / 6)</f>
-        <v>5.2083327296948951</v>
+        <v>5.2241017961405358</v>
       </c>
       <c r="W3" s="11">
         <f xml:space="preserve"> W2 + ((R2 + 2 * S2 + 2 * T2 + U2) / 6)</f>
         <v>5.6310255303579746</v>
       </c>
-      <c r="Y3" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>0.66729171991002367</v>
-      </c>
-      <c r="Z3" s="12">
-        <f t="shared" ref="Z3:Z22" si="7" xml:space="preserve"> ABS(K3 - E3)</f>
-        <v>0.68996415613888917</v>
-      </c>
-      <c r="AA3" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>1.0410410097848715</v>
-      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -9076,11 +8610,11 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="13">
-        <f t="shared" ref="C4:C22" si="8" xml:space="preserve"> C3 + (0.1 * D3)</f>
+        <f t="shared" ref="C4:C22" si="7" xml:space="preserve"> C3 + (0.1 * D3)</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D22" si="9" xml:space="preserve"> D3 +  (0.1 * (6 * EXP(B3) - (-3 * C3)))</f>
+        <f t="shared" ref="D4:D22" si="8" xml:space="preserve"> D3 +  (0.1 * (6 * EXP(B3) - (-3 * C3)))</f>
         <v>8.2131025508453881</v>
       </c>
       <c r="E4" s="13">
@@ -9089,11 +8623,11 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82063008199767296</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H3:H22" si="9" xml:space="preserve"> 0.1 * (((I4 + J4) / 2) + I4)</f>
         <v>0.69072104017363589</v>
       </c>
       <c r="I4" s="12">
@@ -9114,19 +8648,20 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11">
-        <v>3.1947319008891206</v>
+        <f t="shared" si="4"/>
+        <v>2.6313666334179633</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7788664767689215</v>
       </c>
       <c r="P4" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7845025160364028</v>
       </c>
       <c r="Q4" s="11">
-        <f t="shared" si="6"/>
-        <v>2.8240025505693596</v>
+        <f t="shared" si="0"/>
+        <v>2.9395648380712567</v>
       </c>
       <c r="R4" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9146,26 +8681,17 @@
       </c>
       <c r="V4" s="13">
         <f t="shared" ref="V4:V22" si="12" xml:space="preserve"> V3 + ((N3 + 2 * O3 + 2 * P3 + Q3) / 6)</f>
-        <v>7.7239178454643262</v>
+        <v>7.7136657020687895</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" ref="W4:W22" si="13" xml:space="preserve"> W3 + ((R3 + 2 * S3 + 2 * T3 + U3) / 6)</f>
         <v>6.3284165950728699</v>
       </c>
-      <c r="Y4" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>1.3764465798641794</v>
-      </c>
-      <c r="Z4" s="12">
-        <f t="shared" si="7"/>
-        <v>1.4414670142758981</v>
-      </c>
-      <c r="AA4" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>2.1974712656001465</v>
-      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -9173,11 +8699,11 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="13">
+        <f t="shared" si="7"/>
+        <v>4.9713102550845392</v>
+      </c>
+      <c r="D5" s="12">
         <f t="shared" si="8"/>
-        <v>4.9713102550845392</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="9"/>
         <v>10.19094420574149</v>
       </c>
       <c r="E5" s="13">
@@ -9186,11 +8712,11 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0164636344549316</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.83400980710269335</v>
       </c>
       <c r="I5" s="12">
@@ -9211,19 +8737,20 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11">
-        <v>3.8593061879103967</v>
+        <f t="shared" si="4"/>
+        <v>2.939661160042077</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1026736973342701</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1089024840258226</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" si="6"/>
-        <v>3.1525567734546307</v>
+        <f t="shared" si="0"/>
+        <v>3.2802728528280243</v>
       </c>
       <c r="R5" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9243,26 +8770,17 @@
       </c>
       <c r="V5" s="13">
         <f t="shared" si="12"/>
-        <v>10.581496584975849</v>
+        <v>10.496610611585433</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="13"/>
         <v>7.0991529183215842</v>
       </c>
-      <c r="Y5" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>2.154028191152781</v>
-      </c>
-      <c r="Z5" s="12">
-        <f t="shared" si="7"/>
-        <v>2.284683319563384</v>
-      </c>
-      <c r="AA5" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>3.4561581387385285</v>
-      </c>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -9270,11 +8788,11 @@
         <v>0.4</v>
       </c>
       <c r="C6" s="13">
+        <f t="shared" si="7"/>
+        <v>5.9904046756586879</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="8"/>
-        <v>5.9904046756586879</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="9"/>
         <v>12.492252566812454</v>
       </c>
       <c r="E6" s="13">
@@ -9283,11 +8801,11 @@
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2426748167097099</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0.99867753996525266</v>
       </c>
       <c r="I6" s="12">
@@ -9308,19 +8826,20 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11">
-        <v>4.623119268713892</v>
+        <f t="shared" si="4"/>
+        <v>3.2803793050689465</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4605360205659998</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4674198944724015</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="6"/>
-        <v>3.5156653455983768</v>
+        <f t="shared" si="0"/>
+        <v>3.6568134422924916</v>
       </c>
       <c r="R6" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9340,26 +8859,17 @@
       </c>
       <c r="V6" s="13">
         <f t="shared" si="12"/>
-        <v>13.820665805656718</v>
+        <v>13.603791674183814</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="13"/>
         <v>7.950948288280614</v>
       </c>
-      <c r="Y6" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>3.0293825182553622</v>
-      </c>
-      <c r="Z6" s="12">
-        <f t="shared" si="7"/>
-        <v>3.2538953464613014</v>
-      </c>
-      <c r="AA6" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>4.8008786117426681</v>
-      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -9367,11 +8877,11 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="13">
+        <f t="shared" si="7"/>
+        <v>7.2396299323399331</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="8"/>
-        <v>7.2396299323399331</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="9"/>
         <v>15.184468788094822</v>
       </c>
       <c r="E7" s="13">
@@ -9380,11 +8890,11 @@
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5051610539917686</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.1887158496357189</v>
       </c>
       <c r="I7" s="12">
@@ -9405,19 +8915,20 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11">
-        <v>5.5047159243953825</v>
+        <f t="shared" si="4"/>
+        <v>3.6569310902133232</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8560350528766953</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8636429101217495</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="6"/>
-        <v>3.9169623796356179</v>
+        <f t="shared" si="0"/>
+        <v>4.0729551512436828</v>
       </c>
       <c r="R7" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9437,26 +8948,17 @@
       </c>
       <c r="V7" s="13">
         <f t="shared" si="12"/>
-        <v>17.486448546388232</v>
+        <v>17.069309103756854</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="13"/>
         <v>8.8923277593108221</v>
       </c>
-      <c r="Y7" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>4.0356849561587227</v>
-      </c>
-      <c r="Z7" s="12">
-        <f t="shared" si="7"/>
-        <v>4.3887468627084258</v>
-      </c>
-      <c r="AA7" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>6.2111336578895759</v>
-      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -9464,11 +8966,11 @@
         <v>0.6</v>
       </c>
       <c r="C8" s="13">
+        <f t="shared" si="7"/>
+        <v>8.7580768111494152</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="8"/>
-        <v>8.7580768111494152</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="9"/>
         <v>18.345590530216878</v>
       </c>
       <c r="E8" s="13">
@@ -9477,11 +8979,11 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8106813710074832</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.4086918267626014</v>
       </c>
       <c r="I8" s="12">
@@ -9502,19 +9004,20 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11">
-        <v>6.5253153932567542</v>
+        <f t="shared" si="4"/>
+        <v>4.0730851723043591</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2931290815135368</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3015370640896418</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="6"/>
-        <v>4.3604641911635893</v>
+        <f t="shared" si="0"/>
+        <v>4.5328628657748409</v>
       </c>
       <c r="R8" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9534,26 +9037,17 @@
       </c>
       <c r="V8" s="13">
         <f t="shared" si="12"/>
-        <v>21.629954251392881</v>
+        <v>20.93084946499917</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="13"/>
         <v>9.9327129735668436</v>
       </c>
-      <c r="Y8" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>5.2111250912226659</v>
-      </c>
-      <c r="Z8" s="12">
-        <f t="shared" si="7"/>
-        <v>5.7356954247681067</v>
-      </c>
-      <c r="AA8" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>7.6607523490208003</v>
-      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -9561,11 +9055,11 @@
         <v>0.7</v>
       </c>
       <c r="C9" s="13">
+        <f t="shared" si="7"/>
+        <v>10.592635864171104</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="8"/>
-        <v>10.592635864171104</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="9"/>
         <v>22.066284853796009</v>
       </c>
       <c r="E9" s="13">
@@ -9574,11 +9068,11 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1670136933590327</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.6638515781109278</v>
       </c>
       <c r="I9" s="12">
@@ -9599,19 +9093,20 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11">
-        <v>7.7092927045593846</v>
+        <f t="shared" si="4"/>
+        <v>4.5330065612698363</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7761926904274983</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7854849482502964</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" si="6"/>
-        <v>4.8506094953781727</v>
+        <f t="shared" si="0"/>
+        <v>5.0411394968733125</v>
       </c>
       <c r="R9" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9631,26 +9126,17 @@
       </c>
       <c r="V9" s="13">
         <f t="shared" si="12"/>
-        <v>26.309139563997331</v>
+        <v>25.230062853213429</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="13"/>
         <v>11.082516455958501</v>
       </c>
-      <c r="Y9" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>6.6002697943327355</v>
-      </c>
-      <c r="Z9" s="12">
-        <f t="shared" si="7"/>
-        <v>7.3497125820148224</v>
-      </c>
-      <c r="AA9" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>9.1162339054934911</v>
-      </c>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -9658,11 +9144,11 @@
         <v>0.8</v>
       </c>
       <c r="C10" s="13">
+        <f t="shared" si="7"/>
+        <v>12.799264349550706</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="8"/>
-        <v>12.799264349550706</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="9"/>
         <v>26.452327237529627</v>
       </c>
       <c r="E10" s="13">
@@ -9671,11 +9157,11 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5831346481019324</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1.9602384932812094</v>
       </c>
       <c r="I10" s="12">
@@ -9696,19 +9182,20 @@
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11">
-        <v>9.084728501401278</v>
+        <f t="shared" si="4"/>
+        <v>5.0412983049554398</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3100605425798761</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.3203300756888936</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="6"/>
-        <v>5.3923038312274691</v>
+        <f t="shared" si="0"/>
+        <v>5.6028720479008092</v>
       </c>
       <c r="R10" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9728,26 +9215,17 @@
       </c>
       <c r="V10" s="13">
         <f t="shared" si="12"/>
-        <v>31.589682476879521</v>
+        <v>30.012979742463219</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="13"/>
         <v>12.353245826199865</v>
       </c>
-      <c r="Y10" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>8.2556513424659723</v>
-      </c>
-      <c r="Z10" s="12">
-        <f t="shared" si="7"/>
-        <v>9.2962899797926806</v>
-      </c>
-      <c r="AA10" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>10.534766784862843</v>
-      </c>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -9755,11 +9233,11 @@
         <v>0.9</v>
       </c>
       <c r="C11" s="13">
+        <f t="shared" si="7"/>
+        <v>15.444497073303669</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="8"/>
-        <v>15.444497073303669</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="9"/>
         <v>31.62743109949032</v>
       </c>
       <c r="E11" s="13">
@@ -9768,11 +9246,11 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0694258751782004</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.3048288523482485</v>
       </c>
       <c r="I11" s="12">
@@ -9793,19 +9271,20 @@
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11">
-        <v>10.68403949222877</v>
+        <f t="shared" si="4"/>
+        <v>5.6030475579747305</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9000757668741945</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.911425356208496</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="6"/>
-        <v>5.9909686576944141</v>
+        <f t="shared" si="0"/>
+        <v>6.2236825270328415</v>
       </c>
       <c r="R11" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9825,26 +9304,17 @@
       </c>
       <c r="V11" s="13">
         <f t="shared" si="12"/>
-        <v>37.545984738407235</v>
+        <v>35.33047167402885</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="13"/>
         <v>13.757618970935203</v>
       </c>
-      <c r="Y11" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>10.239634867988986</v>
-      </c>
-      <c r="Z11" s="12">
-        <f t="shared" si="7"/>
-        <v>11.653819658377087</v>
-      </c>
-      <c r="AA11" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>11.86185279711458</v>
-      </c>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -9852,11 +9322,11 @@
         <v>1</v>
       </c>
       <c r="C12" s="13">
+        <f t="shared" si="7"/>
+        <v>18.607240183252699</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="8"/>
-        <v>18.607240183252699</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="9"/>
         <v>37.73654208817559</v>
       </c>
       <c r="E12" s="13">
@@ -9865,11 +9335,11 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6379114303350848</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.7056877543019682</v>
       </c>
       <c r="I12" s="12">
@@ -9890,19 +9360,20 @@
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11">
-        <v>12.544703388080682</v>
+        <f t="shared" si="4"/>
+        <v>6.2238764956623704</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5521434339861564</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5646866700505262</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="6"/>
-        <v>6.6525956135804876</v>
+        <f t="shared" si="0"/>
+        <v>6.9097842142061729</v>
       </c>
       <c r="R12" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -9922,26 +9393,17 @@
       </c>
       <c r="V12" s="13">
         <f t="shared" si="12"/>
-        <v>44.262319804421999</v>
+        <v>41.238760395891006</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="13"/>
         <v>15.309691328623142</v>
       </c>
-      <c r="Y12" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>12.626628843291037</v>
-      </c>
-      <c r="Z12" s="12">
-        <f t="shared" si="7"/>
-        <v>14.516429379864945</v>
-      </c>
-      <c r="AA12" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>13.028450777878263</v>
-      </c>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -9949,11 +9411,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="13">
+        <f t="shared" si="7"/>
+        <v>22.38089439207026</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="8"/>
-        <v>22.38089439207026</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="9"/>
         <v>44.949683240226825</v>
       </c>
       <c r="E13" s="13">
@@ -9962,11 +9424,11 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3025315294429909</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.1721487805435231</v>
       </c>
       <c r="I13" s="12">
@@ -9987,19 +9449,20 @@
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11">
-        <v>14.710094202696835</v>
+        <f t="shared" si="4"/>
+        <v>6.9099985826945476</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2727896562957257</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2866520760126265</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="6"/>
-        <v>7.3838064838406954</v>
+        <f t="shared" si="0"/>
+        <v>7.6680438457127735</v>
       </c>
       <c r="R13" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10019,26 +9482,17 @@
       </c>
       <c r="V13" s="13">
         <f t="shared" si="12"/>
-        <v>51.834146339377753</v>
+        <v>47.799980548881322</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="13"/>
         <v>17.024996561088955</v>
       </c>
-      <c r="Y13" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>15.50571382985143</v>
-      </c>
-      <c r="Z13" s="12">
-        <f t="shared" si="7"/>
-        <v>17.997368982924371</v>
-      </c>
-      <c r="AA13" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>13.947538117456062</v>
-      </c>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -10046,11 +9500,11 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="13">
+        <f t="shared" si="7"/>
+        <v>26.875862716092943</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="8"/>
-        <v>26.875862716092943</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="9"/>
         <v>53.466451172215763</v>
       </c>
       <c r="E14" s="13">
@@ -10059,11 +9513,11 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0794586680496963</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.7150213162715504</v>
       </c>
       <c r="I14" s="12">
@@ -10084,19 +9538,20 @@
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11">
-        <v>17.230446157791018</v>
+        <f t="shared" si="4"/>
+        <v>7.6682807595318767</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0692269034133428</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0845472465386194</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="6"/>
-        <v>8.1919194726330602</v>
+        <f t="shared" si="0"/>
+        <v>8.5060503388046254</v>
       </c>
       <c r="R14" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10116,26 +9571,17 @@
       </c>
       <c r="V14" s="13">
         <f t="shared" si="12"/>
-        <v>60.369610364570121</v>
+        <v>55.082801531051992</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="13"/>
         <v>18.920702019633161</v>
       </c>
-      <c r="Y14" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>18.983778732401294</v>
-      </c>
-      <c r="Z14" s="12">
-        <f t="shared" si="7"/>
-        <v>22.233062054503662</v>
-      </c>
-      <c r="AA14" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>14.509968916075884</v>
-      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -10143,11 +9589,11 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="13">
+        <f t="shared" si="7"/>
+        <v>32.222507833314523</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="8"/>
-        <v>32.222507833314523</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="9"/>
         <v>63.521280140685576</v>
       </c>
       <c r="E15" s="13">
@@ -10156,11 +9602,11 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9874630652336069</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4.346830046175322</v>
       </c>
       <c r="I15" s="12">
@@ -10181,19 +9627,20 @@
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11">
-        <v>20.163967196272367</v>
+        <f t="shared" si="4"/>
+        <v>8.5063121690675896</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9494261869999594</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9663577846769567</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="6"/>
-        <v>9.085022446365576</v>
+        <f t="shared" si="0"/>
+        <v>9.4321907441283042</v>
       </c>
       <c r="R15" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10213,26 +9660,17 @@
       </c>
       <c r="V15" s="13">
         <f t="shared" si="12"/>
-        <v>69.991262686291449</v>
+        <v>63.163114764092064</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="13"/>
         <v>21.015780561653479</v>
       </c>
-      <c r="Y15" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>23.189270758134825</v>
-      </c>
-      <c r="Z15" s="12">
-        <f t="shared" si="7"/>
-        <v>27.387959205298152</v>
-      </c>
-      <c r="AA15" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>14.579484094842101</v>
-      </c>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -10240,11 +9678,11 @@
         <v>1.4</v>
       </c>
       <c r="C16" s="13">
+        <f t="shared" si="7"/>
+        <v>38.574635847383078</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="8"/>
-        <v>38.574635847383078</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="9"/>
         <v>75.389610491251489</v>
       </c>
       <c r="E16" s="13">
@@ -10253,11 +9691,11 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0483354468752983</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5.0820918320623321</v>
       </c>
       <c r="I16" s="12">
@@ -10278,19 +9716,20 @@
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11">
-        <v>23.5781263207327</v>
+        <f t="shared" si="4"/>
+        <v>9.4324801113204018</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.92219683733091</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9409091466800827</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="6"/>
-        <v>10.072053879781633</v>
+        <f t="shared" si="0"/>
+        <v>10.455734186146826</v>
       </c>
       <c r="R16" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10310,26 +9749,17 @@
       </c>
       <c r="V16" s="13">
         <f t="shared" si="12"/>
-        <v>80.838022283956747</v>
+        <v>72.124793240183692</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="13"/>
         <v>23.331200437378662</v>
       </c>
-      <c r="Y16" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>28.276685741111635</v>
-      </c>
-      <c r="Z16" s="12">
-        <f t="shared" si="7"/>
-        <v>33.660355646639054</v>
-      </c>
-      <c r="AA16" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>13.986700695462034</v>
-      </c>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -10337,11 +9767,11 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="13">
+        <f t="shared" si="7"/>
+        <v>46.113596896508227</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="8"/>
-        <v>46.113596896508227</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="9"/>
         <v>89.39512122557322</v>
       </c>
       <c r="E17" s="13">
@@ -10350,11 +9780,11 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2873764231416498</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5.9376359836216857</v>
       </c>
       <c r="I17" s="12">
@@ -10375,19 +9805,20 @@
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11">
-        <v>27.551142711627786</v>
+        <f t="shared" si="4"/>
+        <v>10.456053986352178</v>
       </c>
       <c r="O17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.99727467003421</v>
       </c>
       <c r="P17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.017954970136952</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="6"/>
-        <v>11.162892315219574</v>
+        <f t="shared" si="0"/>
+        <v>11.586924631652742</v>
       </c>
       <c r="R17" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10407,26 +9838,17 @@
       </c>
       <c r="V17" s="13">
         <f t="shared" si="12"/>
-        <v>93.067420978712804</v>
+        <v>82.060530951098556</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="13"/>
         <v>25.890135147164465</v>
       </c>
-      <c r="Y17" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>34.431950119455522</v>
-      </c>
-      <c r="Z17" s="12">
-        <f t="shared" si="7"/>
-        <v>41.289367434639274</v>
-      </c>
-      <c r="AA17" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>12.521873962749055</v>
-      </c>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -10434,11 +9856,11 @@
         <v>1.6</v>
       </c>
       <c r="C18" s="13">
+        <f t="shared" si="7"/>
+        <v>55.053109019065552</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="8"/>
-        <v>55.053109019065552</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="9"/>
         <v>105.91821373672853</v>
       </c>
       <c r="E18" s="13">
@@ -10447,11 +9869,11 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7339631548016676</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.9329748666140079</v>
       </c>
       <c r="I18" s="12">
@@ -10472,19 +9894,20 @@
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11">
-        <v>32.17370891904207</v>
+        <f t="shared" si="4"/>
+        <v>11.587278065539293</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.185419425405696</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.208274691656321</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="6"/>
-        <v>12.368455230384731</v>
+        <f t="shared" si="0"/>
+        <v>12.837083414830914</v>
       </c>
       <c r="R18" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10504,26 +9927,17 @@
       </c>
       <c r="V18" s="13">
         <f t="shared" si="12"/>
-        <v>106.85817002991108</v>
+        <v>93.072770600823091</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="13"/>
         <v>28.718195369674078</v>
       </c>
-      <c r="Y18" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>41.87887544862631</v>
-      </c>
-      <c r="Z18" s="12">
-        <f t="shared" si="7"/>
-        <v>50.563298682985717</v>
-      </c>
-      <c r="AA18" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>9.9261855622192172</v>
-      </c>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -10531,11 +9945,11 @@
         <v>1.7</v>
       </c>
       <c r="C19" s="13">
+        <f t="shared" si="7"/>
+        <v>65.644930392738402</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="8"/>
-        <v>65.644930392738402</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="9"/>
         <v>125.40596589708527</v>
       </c>
       <c r="E19" s="13">
@@ -10544,11 +9958,11 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.422205673806559</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8.0907328753186114</v>
       </c>
       <c r="I19" s="12">
@@ -10569,19 +9983,20 @@
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11">
-        <v>37.550985456455997</v>
+        <f t="shared" si="4"/>
+        <v>12.837474019683794</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.498522455506361</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.523781431091431</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="6"/>
-        <v>13.70080830413576</v>
+        <f t="shared" si="0"/>
+        <v>14.218722544976277</v>
       </c>
       <c r="R19" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10601,26 +10016,17 @@
       </c>
       <c r="V19" s="13">
         <f t="shared" si="12"/>
-        <v>122.41309542716955</v>
+        <v>105.27472888657213</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="13"/>
         <v>31.843685282158248</v>
       </c>
-      <c r="Y19" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>50.886901859037579</v>
-      </c>
-      <c r="Z19" s="12">
-        <f t="shared" si="7"/>
-        <v>61.829677456361999</v>
-      </c>
-      <c r="AA19" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>5.8812631753935705</v>
-      </c>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
     </row>
-    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -10628,11 +10034,11 @@
         <v>1.8</v>
       </c>
       <c r="C20" s="13">
+        <f t="shared" si="7"/>
+        <v>78.18552698244693</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="8"/>
-        <v>78.18552698244693</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="9"/>
         <v>148.38381344994312</v>
       </c>
       <c r="E20" s="13">
@@ -10641,11 +10047,11 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.391707161172612</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9.437143051201593</v>
       </c>
       <c r="I20" s="12">
@@ -10666,19 +10072,20 @@
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11">
-        <v>43.804909962165596</v>
+        <f t="shared" si="4"/>
+        <v>14.219154230100138</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.949725736810633</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14.977641222047632</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="6"/>
-        <v>15.173286173854095</v>
+        <f t="shared" si="0"/>
+        <v>15.745669930888262</v>
       </c>
       <c r="R20" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10698,26 +10105,17 @@
       </c>
       <c r="V20" s="13">
         <f t="shared" si="12"/>
-        <v>139.96249568280078</v>
+        <v>118.79152960954808</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="13"/>
         <v>35.297885838174558</v>
       </c>
-      <c r="Y20" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>61.7803894726122</v>
-      </c>
-      <c r="Z20" s="12">
-        <f t="shared" si="7"/>
-        <v>75.507292385082565</v>
-      </c>
-      <c r="AA20" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>3.4207722583516897E-3</v>
-      </c>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -10725,11 +10123,11 @@
         <v>1.9</v>
       </c>
       <c r="C21" s="13">
+        <f t="shared" si="7"/>
+        <v>93.023908327441248</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="8"/>
-        <v>93.023908327441248</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="9"/>
         <v>175.46926002332498</v>
       </c>
       <c r="E21" s="13">
@@ -10738,11 +10136,11 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.688444731136684</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>11.00262208433673</v>
       </c>
       <c r="I21" s="12">
@@ -10763,19 +10161,20 @@
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11">
-        <v>51.076870858777617</v>
+        <f t="shared" si="4"/>
+        <v>15.746147016732914</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.553553399524063</v>
       </c>
       <c r="P21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.584404781971966</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="6"/>
-        <v>16.800625892976779</v>
+        <f t="shared" si="0"/>
+        <v>17.433207775229818</v>
       </c>
       <c r="R21" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10795,26 +10194,17 @@
       </c>
       <c r="V21" s="13">
         <f t="shared" si="12"/>
-        <v>159.76798402509016</v>
+        <v>133.76145595599888</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="13"/>
         <v>39.115367837884513</v>
       </c>
-      <c r="Y21" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>74.949767860191187</v>
-      </c>
-      <c r="Z21" s="12">
-        <f t="shared" si="7"/>
-        <v>92.10062701146876</v>
-      </c>
-      <c r="AA21" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>8.2056921625422774</v>
-      </c>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -10822,11 +10212,11 @@
         <v>2</v>
       </c>
       <c r="C22" s="13">
+        <f t="shared" si="7"/>
+        <v>110.57083432977375</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="8"/>
-        <v>110.57083432977375</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="9"/>
         <v>207.38796918692492</v>
       </c>
       <c r="E22" s="13">
@@ -10835,11 +10225,11 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.365789872958352</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>12.822436119229302</v>
       </c>
       <c r="I22" s="12">
@@ -10860,19 +10250,20 @@
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11">
-        <v>59.530803278233442</v>
+        <f t="shared" si="4"/>
+        <v>17.433735036630761</v>
       </c>
       <c r="O22" s="11">
         <f xml:space="preserve"> 0.1 *  (6 * EXP(B22 + 0.05) - (-3 * (W22 + R22 / 2)))</f>
         <v>18.326057089960187</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.360153140624043</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="6"/>
-        <v>18.59911442438057</v>
+        <f t="shared" si="0"/>
+        <v>19.298225523948179</v>
       </c>
       <c r="R22" s="11">
         <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
@@ -10892,26 +10283,17 @@
       </c>
       <c r="V22" s="13">
         <f t="shared" si="12"/>
-        <v>182.12688621088122</v>
+        <v>150.33733448182468</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="13"/>
         <v>43.334337924241225</v>
       </c>
-      <c r="Y22" s="12">
-        <f xml:space="preserve"> ABS(Таблица2[[#This Row],[u1iточ]] - Таблица2[[#This Row],[u1i]])</f>
-        <v>90.864914801383847</v>
-      </c>
-      <c r="Z22" s="12">
-        <f t="shared" si="7"/>
-        <v>112.21716654725721</v>
-      </c>
-      <c r="AA22" s="12">
-        <f xml:space="preserve"> ABS(Таблица8[[#This Row],[u1i]] - Таблица2[[#This Row],[u1iточ]])</f>
-        <v>19.308862920276368</v>
-      </c>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -10935,20 +10317,11 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="Y23" s="11">
-        <f xml:space="preserve"> SUM(Y2:Y22)</f>
-        <v>494.94439252744826</v>
-      </c>
-      <c r="Z23" s="11">
-        <f xml:space="preserve"> SUM(Z2:Z22)</f>
-        <v>595.3968791311263</v>
-      </c>
-      <c r="AA23" s="11">
-        <f xml:space="preserve"> SUM(AA2:AA22)</f>
-        <v>182.7797296774007</v>
-      </c>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>7</v>
       </c>
@@ -10977,7 +10350,7 @@
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>8</v>
       </c>
@@ -11006,9 +10379,9 @@
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="16">
         <v>0</v>
@@ -11035,9 +10408,9 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="16">
         <v>-3</v>
@@ -11064,12 +10437,12 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -11096,11 +10469,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Dif/Лабораторная работа 1.xlsx
+++ b/Dif/Лабораторная работа 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>i</t>
   </si>
@@ -91,7 +91,7 @@
     <t>u2</t>
   </si>
   <si>
-    <t>u1точ</t>
+    <t>u2точ</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -213,11 +213,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,7 +247,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -252,6 +266,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -259,6 +281,7 @@
   <dxfs count="47">
     <dxf>
       <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -269,13 +292,136 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -301,6 +447,33 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -315,132 +488,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -475,6 +522,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -493,6 +554,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -511,12 +573,112 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -841,6 +1003,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -860,11 +1023,15 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -875,135 +1042,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1155,7 +1193,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 1'!$B$2:$B$22</c:f>
+              <c:f>'Задание 1'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1350,7 +1388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 1'!$B$2:$B$22</c:f>
+              <c:f>'Задание 1'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1640,6 +1678,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1834,7 +1876,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 1'!$B$2:$B$22</c:f>
+              <c:f>'Задание 1'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1906,7 +1948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 1'!$J$2:$J$22</c:f>
+              <c:f>'Задание 1'!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2029,7 +2071,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 1'!$B$2:$B$22</c:f>
+              <c:f>'Задание 1'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2101,7 +2143,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 1'!$P$2:$P$22</c:f>
+              <c:f>'Задание 1'!$T$2:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2224,7 +2266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 1'!$B$2:$B$22</c:f>
+              <c:f>'Задание 1'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2660,9 +2702,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>График методом Эйлера</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2775,72 +2814,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$C$2:$C$22</c:f>
+              <c:f>'Задание 2'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>8.2131025508453881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9713102550845392</c:v>
+                  <c:v>10.19094420574149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9904046756586879</c:v>
+                  <c:v>12.492252566812454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2396299323399331</c:v>
+                  <c:v>15.184468788094822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7580768111494152</c:v>
+                  <c:v>18.345590530216878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.592635864171104</c:v>
+                  <c:v>22.066284853796009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.799264349550706</c:v>
+                  <c:v>26.452327237529627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.444497073303669</c:v>
+                  <c:v>31.62743109949032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.607240183252699</c:v>
+                  <c:v>37.73654208817559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.38089439207026</c:v>
+                  <c:v>44.949683240226825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.875862716092943</c:v>
+                  <c:v>53.466451172215763</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.222507833314523</c:v>
+                  <c:v>63.521280140685576</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.574635847383078</c:v>
+                  <c:v>75.389610491251489</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.113596896508227</c:v>
+                  <c:v>89.39512122557322</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.053109019065552</c:v>
+                  <c:v>105.91821373672853</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.644930392738402</c:v>
+                  <c:v>125.40596589708527</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.18552698244693</c:v>
+                  <c:v>148.38381344994312</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93.023908327441248</c:v>
+                  <c:v>175.46926002332498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110.57083432977375</c:v>
+                  <c:v>207.38796918692492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,9 +3371,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>2-го порядка</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3447,72 +3483,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$K$2:$K$22</c:f>
+              <c:f>'Задание 2'!$L$2:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4773275637711345</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0849795655882817</c:v>
+                  <c:v>8.1847008199767295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8406551266739362</c:v>
+                  <c:v>10.110056350828399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7658918474527487</c:v>
+                  <c:v>12.323851467787478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.88656802579023</c:v>
+                  <c:v>14.880460010879935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2335064776039744</c:v>
+                  <c:v>17.84204336588245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8431930764890172</c:v>
+                  <c:v>21.279913248638859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.758625712223997</c:v>
+                  <c:v>25.276087359116321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.030312282915569</c:v>
+                  <c:v>29.925070510219847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.717439646678791</c:v>
+                  <c:v>35.335898446628562</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.88923923899732</c:v>
+                  <c:v>41.634486943632155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.626579393990575</c:v>
+                  <c:v>48.966335023584264</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.023819386151196</c:v>
+                  <c:v>57.499638374364231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.190965941855659</c:v>
+                  <c:v>67.428877446656841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.256179581324474</c:v>
+                  <c:v>78.978954414662937</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.368685784706145</c:v>
+                  <c:v>92.409964404433524</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.702154795413982</c:v>
+                  <c:v>108.02269935236666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64.458624069976565</c:v>
+                  <c:v>126.16499781567829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.873049176163676</c:v>
+                  <c:v>147.23907131945987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.218582583900385</c:v>
+                  <c:v>171.7099577404091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,69 +3682,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2241017961405358</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.7136657020687895</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.496610611585433</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.603791674183814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.069309103756854</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.93084946499917</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.230062853213429</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.012979742463219</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.33047167402885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.238760395891006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>47.799980548881322</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.082801531051992</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63.163114764092064</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.124793240183692</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82.060530951098556</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>93.072770600823091</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105.27472888657213</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>118.79152960954808</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>133.76145595599888</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>150.33733448182468</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6565,71 +6538,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F25"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="i" dataDxfId="44"/>
-    <tableColumn id="2" name="xi" dataDxfId="43"/>
-    <tableColumn id="3" name="ui" dataDxfId="42"/>
-    <tableColumn id="4" name="uiточ." dataDxfId="41"/>
-    <tableColumn id="5" name="f(xi; ui)" dataDxfId="40"/>
-    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="39"/>
+    <tableColumn id="1" name="i" dataDxfId="5"/>
+    <tableColumn id="2" name="xi" dataDxfId="4"/>
+    <tableColumn id="3" name="ui" dataDxfId="3"/>
+    <tableColumn id="4" name="uiточ." dataDxfId="2"/>
+    <tableColumn id="5" name="f(xi; ui)" dataDxfId="1"/>
+    <tableColumn id="6" name="H * f(xi;yi)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="H1:J22" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="H1:J22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="J1:L22" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="J1:L22"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="k1" dataDxfId="36">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица3[[#This Row],[ui]])</calculatedColumnFormula>
+    <tableColumn id="1" name="k1" dataDxfId="44">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица3[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="0">
-      <calculatedColumnFormula>0.1*((EXP(2*(B2+0.05)))-EXP((B2+0.05))*(J2 + Таблица3[[#This Row],[k1]] / 2))</calculatedColumnFormula>
+    <tableColumn id="2" name="k2" dataDxfId="43">
+      <calculatedColumnFormula>0.1*((EXP(2*(O2+0.05)))-EXP((O2+0.05))*(L2 + Таблица3[[#This Row],[k1]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ui" dataDxfId="35">
-      <calculatedColumnFormula xml:space="preserve"> J1 + I1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" name="ui" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="L1:P22" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="L1:P22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="P1:T22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="P1:T22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="k1" dataDxfId="32">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица4[[#This Row],[ui]])</calculatedColumnFormula>
+    <tableColumn id="1" name="k1" dataDxfId="39">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица4[[#This Row],[ui]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="31">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + L2/2))</calculatedColumnFormula>
+    <tableColumn id="2" name="k2" dataDxfId="38">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + P2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="30">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + M2/2))</calculatedColumnFormula>
+    <tableColumn id="3" name="k3" dataDxfId="37">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + Q2/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="29">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.1)) - EXP(B2 + 0.1) * (P2 + N2))</calculatedColumnFormula>
+    <tableColumn id="4" name="k4" dataDxfId="36">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.1)) - EXP(O2 + 0.1) * (T2 + R2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="ui" dataDxfId="28">
-      <calculatedColumnFormula xml:space="preserve"> P1 +  ((L1 + 2 * M1 + 2 * N1 + O1) / 6)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" name="ui" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:E28"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="i" dataDxfId="25"/>
-    <tableColumn id="2" name="xi" dataDxfId="24"/>
-    <tableColumn id="3" name="u1" dataDxfId="23"/>
-    <tableColumn id="4" name="u2" dataDxfId="22"/>
-    <tableColumn id="5" name="u1точ" dataDxfId="21">
+    <tableColumn id="1" name="i" dataDxfId="32"/>
+    <tableColumn id="2" name="xi" dataDxfId="31"/>
+    <tableColumn id="3" name="u1" dataDxfId="30"/>
+    <tableColumn id="4" name="u2" dataDxfId="29"/>
+    <tableColumn id="5" name="u2точ" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> -3 * EXP(B2) + 5.31 * EXP(B2 * SQRT(3)) + 5.31 *  EXP(-B2 * SQRT(3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6638,25 +6607,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="G1:L22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="G1:L22"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="k1" dataDxfId="18">
+    <tableColumn id="1" name="k1" dataDxfId="16">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="17">
+    <tableColumn id="2" name="k2" dataDxfId="25">
       <calculatedColumnFormula xml:space="preserve"> 0.1 * (((I2 + J2) / 2) + I2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="l1" dataDxfId="16">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * L2))</calculatedColumnFormula>
+    <tableColumn id="3" name="l1" dataDxfId="15">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * L2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="l2" dataDxfId="15">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (L2 + I2)))</calculatedColumnFormula>
+    <tableColumn id="4" name="l2" dataDxfId="17">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (K2 + G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="u1" dataDxfId="14">
+    <tableColumn id="5" name="u1" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> K1 + ((G1 + H1) / 2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="u2" dataDxfId="13">
+    <tableColumn id="6" name="u2" dataDxfId="21">
       <calculatedColumnFormula xml:space="preserve"> L1 +  (0.1 * (6 * EXP(B1) - (-3 * K1)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6665,39 +6634,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="N1:W22" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="N1:W22"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="k1" dataDxfId="10">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * W2))</calculatedColumnFormula>
+    <tableColumn id="1" name="k1" dataDxfId="11">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * W2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="k2" dataDxfId="9">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + R2 / 2)))</calculatedColumnFormula>
+    <tableColumn id="2" name="k2" dataDxfId="8">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l1]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="k3" dataDxfId="8">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + S2 / 2)))</calculatedColumnFormula>
+    <tableColumn id="3" name="k3" dataDxfId="10">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l2]] / 2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="k4" dataDxfId="1">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2)))</calculatedColumnFormula>
+    <tableColumn id="4" name="k4" dataDxfId="9">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (V2 + Таблица8[[#This Row],[k3]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="l1" dataDxfId="7">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</calculatedColumnFormula>
+    <tableColumn id="5" name="l1" dataDxfId="20">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="l2" dataDxfId="6">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</calculatedColumnFormula>
+    <tableColumn id="6" name="l2" dataDxfId="19">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="l3" dataDxfId="5">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</calculatedColumnFormula>
+    <tableColumn id="7" name="l3" dataDxfId="18">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="l4" dataDxfId="4">
-      <calculatedColumnFormula xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</calculatedColumnFormula>
+    <tableColumn id="8" name="l4" dataDxfId="14">
+      <calculatedColumnFormula xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="u1" dataDxfId="3">
-      <calculatedColumnFormula xml:space="preserve"> V1 + ((N1 + 2 * O1 + 2 * P1 + Q1) / 6)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="u2" dataDxfId="2">
-      <calculatedColumnFormula xml:space="preserve"> W1 + ((R1 + 2 * S1 + 2 * T1 + U1) / 6)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="9" name="u1" dataDxfId="13"/>
+    <tableColumn id="10" name="u2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6968,30 +6933,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="I25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
-    <col min="19" max="20" width="33.5546875" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -7006,1306 +6972,1485 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
-        <f xml:space="preserve"> EXP(B2) - 1</f>
+      <c r="D2" s="7">
+        <f xml:space="preserve"> EXP(O2) - 1</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <f xml:space="preserve"> EXP(2 * B2) - EXP(B2) * C2</f>
+        <f xml:space="preserve"> EXP(2 * O2) - EXP(O2) * C2</f>
         <v>1</v>
       </c>
       <c r="F2" s="3">
         <f xml:space="preserve"> $B$24 * E2</f>
         <v>0.1</v>
       </c>
-      <c r="H2" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица3[[#This Row],[ui]])</f>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица3[[#This Row],[ui]])</f>
         <v>0.1</v>
       </c>
-      <c r="I2" s="12">
-        <f>0.1*((EXP(2*(B2+0.05)))-EXP((B2+0.05))*(J2 + Таблица3[[#This Row],[k1]] / 2))</f>
+      <c r="K2" s="11">
+        <f>0.1*((EXP(2*(O2+0.05)))-EXP((O2+0.05))*(L2 + Таблица3[[#This Row],[k1]] / 2))</f>
         <v>0.10526073632568465</v>
       </c>
-      <c r="J2" s="13">
+      <c r="L2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B2) - EXP(B2) * Таблица4[[#This Row],[ui]])</f>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O2) - EXP(O2) * Таблица4[[#This Row],[ui]])</f>
         <v>0.1</v>
       </c>
-      <c r="M2" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + L2/2))</f>
+      <c r="Q2" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + P2/2))</f>
         <v>0.10526073632568465</v>
       </c>
-      <c r="N2" s="11">
-        <f t="shared" ref="N2:N22" si="0" xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.05)) - EXP(B2 + 0.05) * (P2 + M2/2))</f>
+      <c r="R2" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.05)) - EXP(O2 + 0.05) * (T2 + Q2/2))</f>
         <v>0.10498421332344228</v>
       </c>
-      <c r="O2" s="11">
-        <f t="shared" ref="O2:O22" si="1" xml:space="preserve"> 0.1 * (EXP(2 * (B2 + 0.1)) - EXP(B2 + 0.1) * (P2 + N2))</f>
+      <c r="S2" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O2 + 0.1)) - EXP(O2 + 0.1) * (T2 + R2))</f>
         <v>0.11053772587380516</v>
       </c>
-      <c r="P2" s="13">
+      <c r="T2" s="12">
         <v>0</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="19">
         <v>0.1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f xml:space="preserve"> C2 + F2</f>
         <v>0.1</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D22" si="2" xml:space="preserve"> EXP(B3) - 1</f>
+      <c r="D3" s="7">
+        <f xml:space="preserve"> EXP(O3) - 1</f>
         <v>0.10517091807564771</v>
       </c>
       <c r="E3" s="3">
-        <f xml:space="preserve"> EXP(2 * B3) - EXP(B3) * C3</f>
+        <f xml:space="preserve"> EXP(2 * O3) - EXP(O3) * C3</f>
         <v>1.110885666352605</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="3" xml:space="preserve"> $B$24 * E3</f>
+        <f t="shared" ref="F3:F22" si="0" xml:space="preserve"> $B$24 * E3</f>
         <v>0.11108856663526051</v>
       </c>
-      <c r="H3" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B3) - EXP(B3) * Таблица3[[#This Row],[ui]])</f>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O3) - EXP(O3) * Таблица3[[#This Row],[ui]])</f>
         <v>0.11050716535577942</v>
       </c>
-      <c r="I3" s="12">
-        <f>0.1*((EXP(2*(B3+0.05)))-EXP((B3+0.05))*(J3 + Таблица3[[#This Row],[k1]] / 2))</f>
+      <c r="K3" s="11">
+        <f>0.1*((EXP(2*(O3+0.05)))-EXP((O3+0.05))*(L3 + Таблица3[[#This Row],[k1]] / 2))</f>
         <v>0.11633677753094394</v>
       </c>
-      <c r="J3" s="13">
-        <f xml:space="preserve"> J2 + I2</f>
+      <c r="L3" s="12">
+        <f xml:space="preserve"> L2 + K2</f>
         <v>0.10526073632568465</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B3) - EXP(B3) * Таблица4[[#This Row],[ui]])</f>
+      <c r="N3" s="18">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O3) - EXP(O3) * Таблица4[[#This Row],[ui]])</f>
         <v>0.11051705281864199</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M22" si="4" xml:space="preserve"> 0.1 * (EXP(2 * (B3 + 0.05)) - EXP(B3 + 0.05) * (P3 + L3/2))</f>
+      <c r="Q3" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.05)) - EXP(O3 + 0.05) * (T3 + P3/2))</f>
         <v>0.11634659755522146</v>
       </c>
-      <c r="N3" s="11">
+      <c r="R3" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.05)) - EXP(O3 + 0.05) * (T3 + Q3/2))</f>
+        <v>0.11600794932049774</v>
+      </c>
+      <c r="S3" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O3 + 0.1)) - EXP(O3 + 0.1) * (T3 + R3))</f>
+        <v>0.12216757880626401</v>
+      </c>
+      <c r="T3" s="12">
+        <f xml:space="preserve"> T2 +  ((P2 + 2 * Q2 + 2 * R2 + S2) / 6)</f>
+        <v>0.10517127086200984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C22" si="1" xml:space="preserve"> C3 + F3</f>
+        <v>0.21108856663526052</v>
+      </c>
+      <c r="D4" s="7">
+        <f xml:space="preserve"> EXP(O4) - 1</f>
+        <v>0.22140275816016985</v>
+      </c>
+      <c r="E4" s="3">
+        <f xml:space="preserve"> EXP(2 * O4) - EXP(O4) * C4</f>
+        <v>1.2340005401368863</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>0.11600794932049774</v>
-      </c>
-      <c r="O3" s="11">
+        <v>0.12340005401368864</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O4) - EXP(O4) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.12211648830153476</v>
+      </c>
+      <c r="K4" s="11">
+        <f>0.1*((EXP(2*(O4+0.05)))-EXP((O4+0.05))*(L4 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.12857840932454923</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:L21" si="2" xml:space="preserve"> L3 + K3</f>
+        <v>0.2215975138566286</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O4) - EXP(O4) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.12214017807148242</v>
+      </c>
+      <c r="Q4" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.05)) - EXP(O4 + 0.05) * (T4 + P4/2))</f>
+        <v>0.12860179278163855</v>
+      </c>
+      <c r="R4" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.05)) - EXP(O4 + 0.05) * (T4 + Q4/2))</f>
+        <v>0.12818694890560436</v>
+      </c>
+      <c r="S4" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O4 + 0.1)) - EXP(O4 + 0.1) * (T4 + R4))</f>
+        <v>0.13502209750256888</v>
+      </c>
+      <c r="T4" s="12">
+        <f t="shared" ref="T4:T22" si="3" xml:space="preserve"> T3 +  ((P3 + 2 * Q3 + 2 * R3 + S3) / 6)</f>
+        <v>0.22140355842473392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>0.12216757880626401</v>
-      </c>
-      <c r="P3" s="13">
-        <f xml:space="preserve"> P2 +  ((L2 + 2 * M2 + 2 * N2 + O2) / 6)</f>
-        <v>0.10517127086200984</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
+        <v>0.33448862064894913</v>
+      </c>
+      <c r="D5" s="7">
+        <f xml:space="preserve"> EXP(O5) - 1</f>
+        <v>0.34985880757600318</v>
+      </c>
+      <c r="E5" s="3">
+        <f xml:space="preserve"> EXP(2 * O5) - EXP(O5) * C5</f>
+        <v>1.3706063897735763</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13706063897735762</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O5) - EXP(O5) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.13494307462833383</v>
+      </c>
+      <c r="K5" s="11">
+        <f>0.1*((EXP(2*(O5+0.05)))-EXP((O5+0.05))*(L5 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.14210827495291486</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.35017592318117785</v>
+      </c>
+      <c r="N5" s="18">
+        <v>3</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O5) - EXP(O5) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.13498569483612655</v>
+      </c>
+      <c r="Q5" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.05)) - EXP(O5 + 0.05) * (T5 + P5/2))</f>
+        <v>0.14215005629779928</v>
+      </c>
+      <c r="R5" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.05)) - EXP(O5 + 0.05) * (T5 + Q5/2))</f>
+        <v>0.14164172065496669</v>
+      </c>
+      <c r="S5" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O5 + 0.1)) - EXP(O5 + 0.1) * (T5 + R5))</f>
+        <v>0.14923062468237186</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.34986018491615678</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.47154925962630678</v>
+      </c>
+      <c r="D6" s="7">
+        <f xml:space="preserve"> EXP(O6) - 1</f>
+        <v>0.49182469764127035</v>
+      </c>
+      <c r="E6" s="3">
+        <f xml:space="preserve"> EXP(2 * O6) - EXP(O6) * C6</f>
+        <v>1.5220720968274879</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15220720968274881</v>
+      </c>
+      <c r="H6" s="18">
+        <v>4</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O6) - EXP(O6) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.14911392034574997</v>
+      </c>
+      <c r="K6" s="11">
+        <f>0.1*((EXP(2*(O6+0.05)))-EXP((O6+0.05))*(L6 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.15706192153467705</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="2"/>
+        <v>0.49228419813409274</v>
+      </c>
+      <c r="N6" s="18">
+        <v>4</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="P6" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O6) - EXP(O6) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.14918215158095904</v>
+      </c>
+      <c r="Q6" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.05)) - EXP(O6 + 0.05) * (T6 + P6/2))</f>
+        <v>0.15712830066624195</v>
+      </c>
+      <c r="R6" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.05)) - EXP(O6 + 0.05) * (T6 + Q6/2))</f>
+        <v>0.15650519854433342</v>
+      </c>
+      <c r="S6" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O6 + 0.1)) - EXP(O6 + 0.1) * (T6 + R6))</f>
+        <v>0.16493630217191957</v>
+      </c>
+      <c r="T6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.49182683048682851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.62375646930905559</v>
+      </c>
+      <c r="D7" s="7">
+        <f xml:space="preserve"> EXP(O7) - 1</f>
+        <v>0.64872127070012819</v>
+      </c>
+      <c r="E7" s="3">
+        <f xml:space="preserve"> EXP(2 * O7) - EXP(O7) * C7</f>
+        <v>1.6898812697723935</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16898812697723936</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O7) - EXP(O7) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.16476910689145535</v>
+      </c>
+      <c r="K7" s="11">
+        <f>0.1*((EXP(2*(O7+0.05)))-EXP((O7+0.05))*(L7 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.17358916265045901</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="2"/>
+        <v>0.64934611966876976</v>
+      </c>
+      <c r="N7" s="18">
+        <v>5</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O7) - EXP(O7) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.16487161017132212</v>
+      </c>
+      <c r="Q7" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.05)) - EXP(O7 + 0.05) * (T7 + P7/2))</f>
+        <v>0.17368803817990819</v>
+      </c>
+      <c r="R7" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.05)) - EXP(O7 + 0.05) * (T7 + Q7/2))</f>
+        <v>0.17292398315727356</v>
+      </c>
+      <c r="S7" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O7 + 0.1)) - EXP(O7 + 0.1) * (T7 + R7))</f>
+        <v>0.18229759458173381</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.6487244058491668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7927445962862949</v>
+      </c>
+      <c r="D8" s="7">
+        <f xml:space="preserve"> EXP(O8) - 1</f>
+        <v>0.82211880039050889</v>
+      </c>
+      <c r="E8" s="3">
+        <f xml:space="preserve"> EXP(2 * O8) - EXP(O8) * C8</f>
+        <v>1.8756420899353052</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18756420899353055</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O8) - EXP(O8) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.18206310733180095</v>
+      </c>
+      <c r="K8" s="11">
+        <f>0.1*((EXP(2*(O8+0.05)))-EXP((O8+0.05))*(L8 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.19185558769250824</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="2"/>
+        <v>0.82293528231922874</v>
+      </c>
+      <c r="N8" s="18">
+        <v>6</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="P8" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O8) - EXP(O8) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.1822110637243812</v>
+      </c>
+      <c r="Q8" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.05)) - EXP(O8 + 0.05) * (T8 + P8/2))</f>
+        <v>0.19199695914600687</v>
+      </c>
+      <c r="R8" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.05)) - EXP(O8 + 0.05) * (T8 + Q8/2))</f>
+        <v>0.19105969503457765</v>
+      </c>
+      <c r="S8" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O8 + 0.1)) - EXP(O8 + 0.1) * (T8 + R8))</f>
+        <v>0.20149000068592132</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.82212328042040339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.98030880527982545</v>
+      </c>
+      <c r="D9" s="7">
+        <f xml:space="preserve"> EXP(O9) - 1</f>
+        <v>1.0137527074704766</v>
+      </c>
+      <c r="E9" s="3">
+        <f xml:space="preserve"> EXP(2 * O9) - EXP(O9) * C9</f>
+        <v>2.0811004560552777</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20811004560552779</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O9) - EXP(O9) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.2011662104842219</v>
+      </c>
+      <c r="K9" s="11">
+        <f>0.1*((EXP(2*(O9+0.05)))-EXP((O9+0.05))*(L9 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.21204423461963234</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="2"/>
+        <v>1.014790870011737</v>
+      </c>
+      <c r="N9" s="18">
+        <v>7</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O9) - EXP(O9) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.20137400173140746</v>
+      </c>
+      <c r="Q9" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.05)) - EXP(O9 + 0.05) * (T9 + P9/2))</f>
+        <v>0.21224068484819125</v>
+      </c>
+      <c r="R9" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.05)) - EXP(O9 + 0.05) * (T9 + Q9/2))</f>
+        <v>0.21109044643125349</v>
+      </c>
+      <c r="S9" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O9 + 0.1)) - EXP(O9 + 0.1) * (T9 + R9))</f>
+        <v>0.22270798296112143</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0137590092156485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1884188508853533</v>
+      </c>
+      <c r="D10" s="7">
+        <f xml:space="preserve"> EXP(O10) - 1</f>
+        <v>1.2255409284924679</v>
+      </c>
+      <c r="E10" s="3">
+        <f xml:space="preserve"> EXP(2 * O10) - EXP(O10) * C10</f>
+        <v>2.3081576315577741</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23081576315577743</v>
+      </c>
+      <c r="H10" s="18">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O10) - EXP(O10) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.22226606865266635</v>
+      </c>
+      <c r="K10" s="11">
+        <f>0.1*((EXP(2*(O10+0.05)))-EXP((O10+0.05))*(L10 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.2343574447437535</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2268351046313692</v>
+      </c>
+      <c r="N10" s="18">
+        <v>8</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O10) - EXP(O10) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.22255213691069856</v>
+      </c>
+      <c r="Q10" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.05)) - EXP(O10 + 0.05) * (T10 + P10/2))</f>
+        <v>0.23462471510004637</v>
+      </c>
+      <c r="R10" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.05)) - EXP(O10 + 0.05) * (T10 + Q10/2))</f>
+        <v>0.23321243662227947</v>
+      </c>
+      <c r="S10" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O10 + 0.1)) - EXP(O10 + 0.1) * (T10 + R10))</f>
+        <v>0.2461671532702035</v>
+      </c>
+      <c r="T10" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2255497170908849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4192346140411307</v>
+      </c>
+      <c r="D11" s="7">
+        <f xml:space="preserve"> EXP(O11) - 1</f>
+        <v>1.4596031111569499</v>
+      </c>
+      <c r="E11" s="3">
+        <f xml:space="preserve"> EXP(2 * O11) - EXP(O11) * C11</f>
+        <v>2.5588935922557483</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25588935922557482</v>
+      </c>
+      <c r="H11" s="18">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O11) - EXP(O11) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.24556937239705398</v>
+      </c>
+      <c r="K11" s="11">
+        <f>0.1*((EXP(2*(O11+0.05)))-EXP((O11+0.05))*(L11 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.25901892041200725</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4611925493751228</v>
+      </c>
+      <c r="N11" s="18">
+        <v>9</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O11) - EXP(O11) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.24595730920169695</v>
+      </c>
+      <c r="Q11" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.05)) - EXP(O11 + 0.05) * (T11 + P11/2))</f>
+        <v>0.25937659256480039</v>
+      </c>
+      <c r="R11" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.05)) - EXP(O11 + 0.05) * (T11 + Q11/2))</f>
+        <v>0.25764167403414673</v>
+      </c>
+      <c r="S11" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O11 + 0.1)) - EXP(O11 + 0.1) * (T11 + R11))</f>
+        <v>0.27210676280491447</v>
+      </c>
+      <c r="T11" s="12">
+        <f t="shared" si="3"/>
+        <v>1.4596153160284773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6751239732667056</v>
+      </c>
+      <c r="D12" s="7">
+        <f xml:space="preserve"> EXP(O12) - 1</f>
+        <v>1.7182818284590451</v>
+      </c>
+      <c r="E12" s="3">
+        <f xml:space="preserve"> EXP(2 * O12) - EXP(O12) * C12</f>
+        <v>2.8355970419836494</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28355970419836496</v>
+      </c>
+      <c r="H12" s="18">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O12) - EXP(O12) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.27130365195014694</v>
+      </c>
+      <c r="K12" s="11">
+        <f>0.1*((EXP(2*(O12+0.05)))-EXP((O12+0.05))*(L12 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.28627600904604028</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="2"/>
+        <v>1.72021146978713</v>
+      </c>
+      <c r="N12" s="18">
+        <v>10</v>
+      </c>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O12) - EXP(O12) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.27182358303186521</v>
+      </c>
+      <c r="Q12" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.05)) - EXP(O12 + 0.05) * (T12 + P12/2))</f>
+        <v>0.28674830848250882</v>
+      </c>
+      <c r="R12" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.05)) - EXP(O12 + 0.05) * (T12 + Q12/2))</f>
+        <v>0.28461582556396803</v>
+      </c>
+      <c r="S12" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O12 + 0.1)) - EXP(O12 + 0.1) * (T12 + R12))</f>
+        <v>0.30079255819691186</v>
+      </c>
+      <c r="T12" s="12">
+        <f t="shared" si="3"/>
+        <v>1.7182987502292282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9586836774650704</v>
+      </c>
+      <c r="D13" s="7">
+        <f xml:space="preserve"> EXP(O13) - 1</f>
+        <v>2.0041660239464334</v>
+      </c>
+      <c r="E13" s="3">
+        <f xml:space="preserve"> EXP(2 * O13) - EXP(O13) * C13</f>
+        <v>3.1408025439351031</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31408025439351034</v>
+      </c>
+      <c r="H13" s="18">
+        <v>11</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J13" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O13) - EXP(O13) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.29971919880495729</v>
+      </c>
+      <c r="K13" s="11">
+        <f>0.1*((EXP(2*(O13+0.05)))-EXP((O13+0.05))*(L13 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.31640224015006502</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="2"/>
+        <v>2.0064874788331704</v>
+      </c>
+      <c r="N13" s="18">
+        <v>11</v>
+      </c>
+      <c r="O13" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P13" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O13) - EXP(O13) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.30040955426973881</v>
+      </c>
+      <c r="Q13" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.05)) - EXP(O13 + 0.05) * (T13 + P13/2))</f>
+        <v>0.317018977109713</v>
+      </c>
+      <c r="R13" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.05)) - EXP(O13 + 0.05) * (T13 + Q13/2))</f>
+        <v>0.31439618903735067</v>
+      </c>
+      <c r="S13" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O13 + 0.1)) - EXP(O13 + 0.1) * (T13 + R13))</f>
+        <v>0.3325200847069929</v>
+      </c>
+      <c r="T13" s="12">
+        <f t="shared" si="3"/>
+        <v>2.0041894851161834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2727639318585808</v>
+      </c>
+      <c r="D14" s="7">
+        <f xml:space="preserve"> EXP(O14) - 1</f>
+        <v>2.3201169227365472</v>
+      </c>
+      <c r="E14" s="3">
+        <f xml:space="preserve"> EXP(2 * O14) - EXP(O14) * C14</f>
+        <v>3.4773343890926744</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34773343890926744</v>
+      </c>
+      <c r="H14" s="18">
+        <v>12</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="J14" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O14) - EXP(O14) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.33109109149946181</v>
+      </c>
+      <c r="K14" s="11">
+        <f>0.1*((EXP(2*(O14+0.05)))-EXP((O14+0.05))*(L14 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.34970014593430698</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3228897189832356</v>
+      </c>
+      <c r="N14" s="18">
+        <v>12</v>
+      </c>
+      <c r="O14" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="P14" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O14) - EXP(O14) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.33200088277262252</v>
+      </c>
+      <c r="Q14" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.05)) - EXP(O14 + 0.05) * (T14 + P14/2))</f>
+        <v>0.35049780902536426</v>
+      </c>
+      <c r="R14" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.05)) - EXP(O14 + 0.05) * (T14 + Q14/2))</f>
+        <v>0.34726977821131694</v>
+      </c>
+      <c r="S14" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O14 + 0.1)) - EXP(O14 + 0.1) * (T14 + R14))</f>
+        <v>0.36761854385000048</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="3"/>
+        <v>2.3201494803279932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6204973707678483</v>
+      </c>
+      <c r="D15" s="7">
+        <f xml:space="preserve"> EXP(O15) - 1</f>
+        <v>2.6692966676192444</v>
+      </c>
+      <c r="E15" s="3">
+        <f xml:space="preserve"> EXP(2 * O15) - EXP(O15) * C15</f>
+        <v>3.8483557649382334</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.38483557649382338</v>
+      </c>
+      <c r="H15" s="18">
+        <v>13</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O15) - EXP(O15) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.36572129497467876</v>
+      </c>
+      <c r="K15" s="11">
+        <f>0.1*((EXP(2*(O15+0.05)))-EXP((O15+0.05))*(L15 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.38650440166804878</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="2"/>
+        <v>2.6725898649175424</v>
+      </c>
+      <c r="N15" s="18">
+        <v>13</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="P15" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O15) - EXP(O15) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.36691306457975603</v>
+      </c>
+      <c r="Q15" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.05)) - EXP(O15 + 0.05) * (T15 + P15/2))</f>
+        <v>0.38752741648233935</v>
+      </c>
+      <c r="R15" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.05)) - EXP(O15 + 0.05) * (T15 + Q15/2))</f>
+        <v>0.38355150011594952</v>
+      </c>
+      <c r="S15" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O15 + 0.1)) - EXP(O15 + 0.1) * (T15 + R15))</f>
+        <v>0.40645535000263777</v>
+      </c>
+      <c r="T15" s="12">
+        <f t="shared" si="3"/>
+        <v>2.6693419138439909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0053329472616719</v>
+      </c>
+      <c r="D16" s="7">
+        <f xml:space="preserve"> EXP(O16) - 1</f>
+        <v>3.0551999668446745</v>
+      </c>
+      <c r="E16" s="3">
+        <f xml:space="preserve"> EXP(2 * O16) - EXP(O16) * C16</f>
+        <v>4.2574207030043087</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42574207030043087</v>
+      </c>
+      <c r="H16" s="18">
+        <v>14</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="J16" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O16) - EXP(O16) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.40394078026644265</v>
+      </c>
+      <c r="K16" s="11">
+        <f>0.1*((EXP(2*(O16+0.05)))-EXP((O16+0.05))*(L16 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.42718532964810763</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="2"/>
+        <v>3.0590942665855909</v>
+      </c>
+      <c r="N16" s="18">
+        <v>14</v>
+      </c>
+      <c r="O16" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="P16" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O16) - EXP(O16) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.4054944536709586</v>
+      </c>
+      <c r="Q16" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.05)) - EXP(O16 + 0.05) * (T16 + P16/2))</f>
+        <v>0.42848748720935231</v>
+      </c>
+      <c r="R16" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.05)) - EXP(O16 + 0.05) * (T16 + Q16/2))</f>
+        <v>0.42358639045808782</v>
+      </c>
+      <c r="S16" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O16 + 0.1)) - EXP(O16 + 0.1) * (T16 + R16))</f>
+        <v>0.44944158336658102</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="3"/>
+        <v>3.0552629551404862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4310750175621028</v>
+      </c>
+      <c r="D17" s="7">
+        <f xml:space="preserve"> EXP(O17) - 1</f>
+        <v>3.4816890703380645</v>
+      </c>
+      <c r="E17" s="3">
+        <f xml:space="preserve"> EXP(2 * O17) - EXP(O17) * C17</f>
+        <v>4.7085255174696083</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47085255174696083</v>
+      </c>
+      <c r="H17" s="18">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O17) - EXP(O17) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.44611157606044999</v>
+      </c>
+      <c r="K17" s="11">
+        <f>0.1*((EXP(2*(O17+0.05)))-EXP((O17+0.05))*(L17 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.47215282212533866</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4862795962336985</v>
+      </c>
+      <c r="N17" s="18">
+        <v>15</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O17) - EXP(O17) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.44812953530666494</v>
+      </c>
+      <c r="Q17" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.05)) - EXP(O17 + 0.05) * (T17 + P17/2))</f>
+        <v>0.47379886661363813</v>
+      </c>
+      <c r="R17" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.05)) - EXP(O17 + 0.05) * (T17 + Q17/2))</f>
+        <v>0.46775185216064552</v>
+      </c>
+      <c r="S17" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O17 + 0.1)) - EXP(O17 + 0.1) * (T17 + R17))</f>
+        <v>0.49703861248619713</v>
+      </c>
+      <c r="T17" s="12">
+        <f t="shared" si="3"/>
+        <v>3.4817769205358893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9019275693090636</v>
+      </c>
+      <c r="D18" s="7">
+        <f xml:space="preserve"> EXP(O18) - 1</f>
+        <v>3.9530324243951149</v>
+      </c>
+      <c r="E18" s="3">
+        <f xml:space="preserve"> EXP(2 * O18) - EXP(O18) * C18</f>
+        <v>5.2061564286803446</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52061564286803452</v>
+      </c>
+      <c r="H18" s="18">
+        <v>16</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="J18" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O18) - EXP(O18) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.49262860792002705</v>
+      </c>
+      <c r="K18" s="11">
+        <f>0.1*((EXP(2*(O18+0.05)))-EXP((O18+0.05))*(L18 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.52186075591420045</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="2"/>
+        <v>3.9584324183590374</v>
+      </c>
+      <c r="N18" s="18">
+        <v>16</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="P18" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O18) - EXP(O18) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.49524243883300834</v>
+      </c>
+      <c r="Q18" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.05)) - EXP(O18 + 0.05) * (T18 + P18/2))</f>
+        <v>0.52392809256205375</v>
+      </c>
+      <c r="R18" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.05)) - EXP(O18 + 0.05) * (T18 + Q18/2))</f>
+        <v>0.51645981154722342</v>
+      </c>
+      <c r="S18" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O18 + 0.1)) - EXP(O18 + 0.1) * (T18 + R18))</f>
+        <v>0.54976626963392694</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" si="3"/>
+        <v>3.9531551847594608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4225432121770982</v>
+      </c>
+      <c r="D19" s="7">
+        <f xml:space="preserve"> EXP(O19) - 1</f>
+        <v>4.4739473917271999</v>
+      </c>
+      <c r="E19" s="3">
+        <f xml:space="preserve"> EXP(2 * O19) - EXP(O19) * C19</f>
+        <v>5.7553311662993529</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57553311662993534</v>
+      </c>
+      <c r="H19" s="18">
+        <v>17</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="J19" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O19) - EXP(O19) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.54392109119108412</v>
+      </c>
+      <c r="K19" s="11">
+        <f>0.1*((EXP(2*(O19+0.05)))-EXP((O19+0.05))*(L19 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.57681199852772413</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="2"/>
+        <v>4.4802931742732381</v>
+      </c>
+      <c r="N19" s="18">
+        <v>17</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="P19" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O19) - EXP(O19) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.54730065343214707</v>
+      </c>
+      <c r="Q19" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.05)) - EXP(O19 + 0.05) * (T19 + P19/2))</f>
+        <v>0.5793924327343497</v>
+      </c>
+      <c r="R19" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.05)) - EXP(O19 + 0.05) * (T19 + Q19/2))</f>
+        <v>0.57015866078183741</v>
+      </c>
+      <c r="S19" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O19 + 0.1)) - EXP(O19 + 0.1) * (T19 + R19))</f>
+        <v>0.60821312446438291</v>
+      </c>
+      <c r="T19" s="12">
+        <f t="shared" si="3"/>
+        <v>4.4741192708737092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9980763288070333</v>
+      </c>
+      <c r="D20" s="7">
+        <f xml:space="preserve"> EXP(O20) - 1</f>
+        <v>5.0496474644129465</v>
+      </c>
+      <c r="E20" s="3">
+        <f xml:space="preserve"> EXP(2 * O20) - EXP(O20) * C20</f>
+        <v>6.3616346541681494</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63616346541681501</v>
+      </c>
+      <c r="H20" s="18">
+        <v>18</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O20) - EXP(O20) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.60045309577730532</v>
+      </c>
+      <c r="K20" s="11">
+        <f>0.1*((EXP(2*(O20+0.05)))-EXP((O20+0.05))*(L20 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.63756414937715178</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="2"/>
+        <v>5.0571051728009619</v>
+      </c>
+      <c r="N20" s="18">
+        <v>18</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="P20" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O20) - EXP(O20) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.6048188689030316</v>
+      </c>
+      <c r="Q20" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.05)) - EXP(O20 + 0.05) * (T20 + P20/2))</f>
+        <v>0.64076548401975164</v>
+      </c>
+      <c r="R20" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.05)) - EXP(O20 + 0.05) * (T20 + Q20/2))</f>
+        <v>0.62933478479021265</v>
+      </c>
+      <c r="S20" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O20 + 0.1)) - EXP(O20 + 0.1) * (T20 + R20))</f>
+        <v>0.67304964394219202</v>
+      </c>
+      <c r="T20" s="12">
+        <f t="shared" si="3"/>
+        <v>5.0498885983618598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6342397942238485</v>
+      </c>
+      <c r="D21" s="7">
+        <f xml:space="preserve"> EXP(O21) - 1</f>
+        <v>5.6858944422792685</v>
+      </c>
+      <c r="E21" s="3">
+        <f xml:space="preserve"> EXP(2 * O21) - EXP(O21) * C21</f>
+        <v>7.0312519666308972</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70312519666308981</v>
+      </c>
+      <c r="H21" s="18">
+        <v>19</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="J21" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O21) - EXP(O21) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.6627226521531917</v>
+      </c>
+      <c r="K21" s="11">
+        <f>0.1*((EXP(2*(O21+0.05)))-EXP((O21+0.05))*(L21 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.70473623278918396</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>5.6946693221781137</v>
+      </c>
+      <c r="N21" s="18">
+        <v>19</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="P21" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O21) - EXP(O21) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.66836279385932407</v>
+      </c>
+      <c r="Q21" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.05)) - EXP(O21 + 0.05) * (T21 + P21/2))</f>
+        <v>0.70868341104617372</v>
+      </c>
+      <c r="R21" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.05)) - EXP(O21 + 0.05) * (T21 + Q21/2))</f>
+        <v>0.69451335998302854</v>
+      </c>
+      <c r="S21" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O21 + 0.1)) - EXP(O21 + 0.1) * (T21 + R21))</f>
+        <v>0.74504539742137865</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" si="3"/>
+        <v>5.6862334401060517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C22" si="5" xml:space="preserve"> C3 + F3</f>
-        <v>0.21108856663526052</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="2"/>
-        <v>0.22140275816016985</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E22" si="6" xml:space="preserve"> EXP(2 * B4) - EXP(B4) * C4</f>
-        <v>1.2340005401368863</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3373649908869378</v>
+      </c>
+      <c r="D22" s="7">
+        <f xml:space="preserve"> EXP(O22) - 1</f>
+        <v>6.3890560989306504</v>
+      </c>
+      <c r="E22" s="3">
+        <f xml:space="preserve"> EXP(2 * O22) - EXP(O22) * C22</f>
+        <v>7.7710045960815251</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77710045960815255</v>
+      </c>
+      <c r="H22" s="18">
+        <v>20</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="11">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O22) - EXP(O22) * Таблица3[[#This Row],[ui]])</f>
+        <v>0.73125833876824453</v>
+      </c>
+      <c r="K22" s="11">
+        <f>0.1*((EXP(2*(O22+0.05)))-EXP((O22+0.05))*(L22 + Таблица3[[#This Row],[k1]] / 2))</f>
+        <v>0.77901668778688349</v>
+      </c>
+      <c r="L22" s="12">
+        <f xml:space="preserve"> L21 + K21</f>
+        <v>6.3994055549672977</v>
+      </c>
+      <c r="N22" s="18">
+        <v>20</v>
+      </c>
+      <c r="O22" s="19">
+        <v>2</v>
+      </c>
+      <c r="P22" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * O22) - EXP(O22) * Таблица4[[#This Row],[ui]])</f>
+        <v>0.73855268635839555</v>
+      </c>
+      <c r="Q22" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.05)) - EXP(O22 + 0.05) * (T22 + P22/2))</f>
+        <v>0.78385193603956371</v>
+      </c>
+      <c r="R22" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.05)) - EXP(O22 + 0.05) * (T22 + Q22/2))</f>
+        <v>0.76625793145390309</v>
+      </c>
+      <c r="S22" s="10">
+        <f xml:space="preserve"> 0.1 * (EXP(2 * (O22 + 0.1)) - EXP(O22 + 0.1) * (T22 + R22))</f>
+        <v>0.82509204827574301</v>
+      </c>
+      <c r="T22" s="12">
         <f t="shared" si="3"/>
-        <v>0.12340005401368864</v>
-      </c>
-      <c r="H4" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B4) - EXP(B4) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.12211648830153476</v>
-      </c>
-      <c r="I4" s="12">
-        <f>0.1*((EXP(2*(B4+0.05)))-EXP((B4+0.05))*(J4 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.12857840932454923</v>
-      </c>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J21" si="7" xml:space="preserve"> J3 + I3</f>
-        <v>0.2215975138566286</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B4) - EXP(B4) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.12214017807148242</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" si="4"/>
-        <v>0.12860179278163855</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" si="0"/>
-        <v>0.12818694890560436</v>
-      </c>
-      <c r="O4" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13502209750256888</v>
-      </c>
-      <c r="P4" s="13">
-        <f t="shared" ref="P4:P22" si="8" xml:space="preserve"> P3 +  ((L3 + 2 * M3 + 2 * N3 + O3) / 6)</f>
-        <v>0.22140355842473392</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+        <v>6.3895337289959029</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="5"/>
-        <v>0.33448862064894913</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34985880757600318</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3706063897735763</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.13706063897735762</v>
-      </c>
-      <c r="H5" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B5) - EXP(B5) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.13494307462833383</v>
-      </c>
-      <c r="I5" s="12">
-        <f>0.1*((EXP(2*(B5+0.05)))-EXP((B5+0.05))*(J5 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.14210827495291486</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="7"/>
-        <v>0.35017592318117785</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B5) - EXP(B5) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.13498569483612655</v>
-      </c>
-      <c r="M5" s="11">
-        <f t="shared" si="4"/>
-        <v>0.14215005629779928</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.14164172065496669</v>
-      </c>
-      <c r="O5" s="11">
-        <f t="shared" si="1"/>
-        <v>0.14923062468237186</v>
-      </c>
-      <c r="P5" s="13">
-        <f t="shared" si="8"/>
-        <v>0.34986018491615678</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.47154925962630678</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.49182469764127035</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5220720968274879</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.15220720968274881</v>
-      </c>
-      <c r="H6" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B6) - EXP(B6) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.14911392034574997</v>
-      </c>
-      <c r="I6" s="12">
-        <f>0.1*((EXP(2*(B6+0.05)))-EXP((B6+0.05))*(J6 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.15706192153467705</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" si="7"/>
-        <v>0.49228419813409274</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B6) - EXP(B6) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.14918215158095904</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="4"/>
-        <v>0.15712830066624195</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.15650519854433342</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.16493630217191957</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="8"/>
-        <v>0.49182683048682851</v>
-      </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="5"/>
-        <v>0.62375646930905559</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="2"/>
-        <v>0.64872127070012819</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="6"/>
-        <v>1.6898812697723935</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.16898812697723936</v>
-      </c>
-      <c r="H7" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B7) - EXP(B7) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.16476910689145535</v>
-      </c>
-      <c r="I7" s="12">
-        <f>0.1*((EXP(2*(B7+0.05)))-EXP((B7+0.05))*(J7 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.17358916265045901</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="7"/>
-        <v>0.64934611966876976</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B7) - EXP(B7) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.16487161017132212</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" si="4"/>
-        <v>0.17368803817990819</v>
-      </c>
-      <c r="N7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.17292398315727356</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" si="1"/>
-        <v>0.18229759458173381</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="8"/>
-        <v>0.6487244058491668</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="5"/>
-        <v>0.7927445962862949</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.82211880039050889</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="6"/>
-        <v>1.8756420899353052</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.18756420899353055</v>
-      </c>
-      <c r="H8" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B8) - EXP(B8) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.18206310733180095</v>
-      </c>
-      <c r="I8" s="12">
-        <f>0.1*((EXP(2*(B8+0.05)))-EXP((B8+0.05))*(J8 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.19185558769250824</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="7"/>
-        <v>0.82293528231922874</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B8) - EXP(B8) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.1822110637243812</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="4"/>
-        <v>0.19199695914600687</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.19105969503457765</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="1"/>
-        <v>0.20149000068592132</v>
-      </c>
-      <c r="P8" s="13">
-        <f t="shared" si="8"/>
-        <v>0.82212328042040339</v>
-      </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="5"/>
-        <v>0.98030880527982545</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0137527074704766</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="6"/>
-        <v>2.0811004560552777</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="3"/>
-        <v>0.20811004560552779</v>
-      </c>
-      <c r="H9" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B9) - EXP(B9) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.2011662104842219</v>
-      </c>
-      <c r="I9" s="12">
-        <f>0.1*((EXP(2*(B9+0.05)))-EXP((B9+0.05))*(J9 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.21204423461963234</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" si="7"/>
-        <v>1.014790870011737</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B9) - EXP(B9) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.20137400173140746</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="4"/>
-        <v>0.21224068484819125</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.21109044643125349</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.22270798296112143</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="8"/>
-        <v>1.0137590092156485</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="5"/>
-        <v>1.1884188508853533</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2255409284924679</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3081576315577741</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="3"/>
-        <v>0.23081576315577743</v>
-      </c>
-      <c r="H10" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B10) - EXP(B10) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.22226606865266635</v>
-      </c>
-      <c r="I10" s="12">
-        <f>0.1*((EXP(2*(B10+0.05)))-EXP((B10+0.05))*(J10 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.2343574447437535</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="7"/>
-        <v>1.2268351046313692</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B10) - EXP(B10) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.22255213691069856</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="4"/>
-        <v>0.23462471510004637</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.23321243662227947</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="1"/>
-        <v>0.2461671532702035</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="8"/>
-        <v>1.2255497170908849</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="5"/>
-        <v>1.4192346140411307</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4596031111569499</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5588935922557483</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25588935922557482</v>
-      </c>
-      <c r="H11" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B11) - EXP(B11) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.24556937239705398</v>
-      </c>
-      <c r="I11" s="12">
-        <f>0.1*((EXP(2*(B11+0.05)))-EXP((B11+0.05))*(J11 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.25901892041200725</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" si="7"/>
-        <v>1.4611925493751228</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B11) - EXP(B11) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.24595730920169695</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="4"/>
-        <v>0.25937659256480039</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.25764167403414673</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.27210676280491447</v>
-      </c>
-      <c r="P11" s="13">
-        <f t="shared" si="8"/>
-        <v>1.4596153160284773</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="5"/>
-        <v>1.6751239732667056</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7182818284590451</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="6"/>
-        <v>2.8355970419836494</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.28355970419836496</v>
-      </c>
-      <c r="H12" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B12) - EXP(B12) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.27130365195014694</v>
-      </c>
-      <c r="I12" s="12">
-        <f>0.1*((EXP(2*(B12+0.05)))-EXP((B12+0.05))*(J12 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.28627600904604028</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="7"/>
-        <v>1.72021146978713</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B12) - EXP(B12) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.27182358303186521</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="4"/>
-        <v>0.28674830848250882</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.28461582556396803</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="1"/>
-        <v>0.30079255819691186</v>
-      </c>
-      <c r="P12" s="13">
-        <f t="shared" si="8"/>
-        <v>1.7182987502292282</v>
-      </c>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="5"/>
-        <v>1.9586836774650704</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="2"/>
-        <v>2.0041660239464334</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="6"/>
-        <v>3.1408025439351031</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.31408025439351034</v>
-      </c>
-      <c r="H13" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B13) - EXP(B13) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.29971919880495729</v>
-      </c>
-      <c r="I13" s="12">
-        <f>0.1*((EXP(2*(B13+0.05)))-EXP((B13+0.05))*(J13 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.31640224015006502</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="7"/>
-        <v>2.0064874788331704</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B13) - EXP(B13) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.30040955426973881</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="4"/>
-        <v>0.317018977109713</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.31439618903735067</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="1"/>
-        <v>0.3325200847069929</v>
-      </c>
-      <c r="P13" s="13">
-        <f t="shared" si="8"/>
-        <v>2.0041894851161834</v>
-      </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="5"/>
-        <v>2.2727639318585808</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="2"/>
-        <v>2.3201169227365472</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="6"/>
-        <v>3.4773343890926744</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.34773343890926744</v>
-      </c>
-      <c r="H14" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B14) - EXP(B14) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.33109109149946181</v>
-      </c>
-      <c r="I14" s="12">
-        <f>0.1*((EXP(2*(B14+0.05)))-EXP((B14+0.05))*(J14 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.34970014593430698</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="7"/>
-        <v>2.3228897189832356</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B14) - EXP(B14) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.33200088277262252</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="4"/>
-        <v>0.35049780902536426</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.34726977821131694</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.36761854385000048</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="8"/>
-        <v>2.3201494803279932</v>
-      </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="5"/>
-        <v>2.6204973707678483</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="2"/>
-        <v>2.6692966676192444</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="6"/>
-        <v>3.8483557649382334</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.38483557649382338</v>
-      </c>
-      <c r="H15" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B15) - EXP(B15) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.36572129497467876</v>
-      </c>
-      <c r="I15" s="12">
-        <f>0.1*((EXP(2*(B15+0.05)))-EXP((B15+0.05))*(J15 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.38650440166804878</v>
-      </c>
-      <c r="J15" s="13">
-        <f t="shared" si="7"/>
-        <v>2.6725898649175424</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B15) - EXP(B15) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.36691306457975603</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="4"/>
-        <v>0.38752741648233935</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.38355150011594952</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="1"/>
-        <v>0.40645535000263777</v>
-      </c>
-      <c r="P15" s="13">
-        <f t="shared" si="8"/>
-        <v>2.6693419138439909</v>
-      </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="5"/>
-        <v>3.0053329472616719</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="2"/>
-        <v>3.0551999668446745</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="6"/>
-        <v>4.2574207030043087</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.42574207030043087</v>
-      </c>
-      <c r="H16" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B16) - EXP(B16) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.40394078026644265</v>
-      </c>
-      <c r="I16" s="12">
-        <f>0.1*((EXP(2*(B16+0.05)))-EXP((B16+0.05))*(J16 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.42718532964810763</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="7"/>
-        <v>3.0590942665855909</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B16) - EXP(B16) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.4054944536709586</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="4"/>
-        <v>0.42848748720935231</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
-        <v>0.42358639045808782</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="1"/>
-        <v>0.44944158336658102</v>
-      </c>
-      <c r="P16" s="13">
-        <f t="shared" si="8"/>
-        <v>3.0552629551404862</v>
-      </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="5"/>
-        <v>3.4310750175621028</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="2"/>
-        <v>3.4816890703380645</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="6"/>
-        <v>4.7085255174696083</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.47085255174696083</v>
-      </c>
-      <c r="H17" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B17) - EXP(B17) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.44611157606044999</v>
-      </c>
-      <c r="I17" s="12">
-        <f>0.1*((EXP(2*(B17+0.05)))-EXP((B17+0.05))*(J17 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.47215282212533866</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="7"/>
-        <v>3.4862795962336985</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B17) - EXP(B17) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.44812953530666494</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="4"/>
-        <v>0.47379886661363813</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.46775185216064552</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="1"/>
-        <v>0.49703861248619713</v>
-      </c>
-      <c r="P17" s="13">
-        <f t="shared" si="8"/>
-        <v>3.4817769205358893</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="5"/>
-        <v>3.9019275693090636</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="2"/>
-        <v>3.9530324243951149</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="6"/>
-        <v>5.2061564286803446</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.52061564286803452</v>
-      </c>
-      <c r="H18" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B18) - EXP(B18) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.49262860792002705</v>
-      </c>
-      <c r="I18" s="12">
-        <f>0.1*((EXP(2*(B18+0.05)))-EXP((B18+0.05))*(J18 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.52186075591420045</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="7"/>
-        <v>3.9584324183590374</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B18) - EXP(B18) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.49524243883300834</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="4"/>
-        <v>0.52392809256205375</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="0"/>
-        <v>0.51645981154722342</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="1"/>
-        <v>0.54976626963392694</v>
-      </c>
-      <c r="P18" s="13">
-        <f t="shared" si="8"/>
-        <v>3.9531551847594608</v>
-      </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="5"/>
-        <v>4.4225432121770982</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="2"/>
-        <v>4.4739473917271999</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="6"/>
-        <v>5.7553311662993529</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.57553311662993534</v>
-      </c>
-      <c r="H19" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B19) - EXP(B19) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.54392109119108412</v>
-      </c>
-      <c r="I19" s="12">
-        <f>0.1*((EXP(2*(B19+0.05)))-EXP((B19+0.05))*(J19 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.57681199852772413</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="7"/>
-        <v>4.4802931742732381</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B19) - EXP(B19) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.54730065343214707</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" si="4"/>
-        <v>0.5793924327343497</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="0"/>
-        <v>0.57015866078183741</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="1"/>
-        <v>0.60821312446438291</v>
-      </c>
-      <c r="P19" s="13">
-        <f t="shared" si="8"/>
-        <v>4.4741192708737092</v>
-      </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="5"/>
-        <v>4.9980763288070333</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="2"/>
-        <v>5.0496474644129465</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="6"/>
-        <v>6.3616346541681494</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.63616346541681501</v>
-      </c>
-      <c r="H20" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B20) - EXP(B20) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.60045309577730532</v>
-      </c>
-      <c r="I20" s="12">
-        <f>0.1*((EXP(2*(B20+0.05)))-EXP((B20+0.05))*(J20 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.63756414937715178</v>
-      </c>
-      <c r="J20" s="13">
-        <f t="shared" si="7"/>
-        <v>5.0571051728009619</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B20) - EXP(B20) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.6048188689030316</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="4"/>
-        <v>0.64076548401975164</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="0"/>
-        <v>0.62933478479021265</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" si="1"/>
-        <v>0.67304964394219202</v>
-      </c>
-      <c r="P20" s="13">
-        <f t="shared" si="8"/>
-        <v>5.0498885983618598</v>
-      </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="5"/>
-        <v>5.6342397942238485</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="2"/>
-        <v>5.6858944422792685</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="6"/>
-        <v>7.0312519666308972</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.70312519666308981</v>
-      </c>
-      <c r="H21" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B21) - EXP(B21) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.6627226521531917</v>
-      </c>
-      <c r="I21" s="12">
-        <f>0.1*((EXP(2*(B21+0.05)))-EXP((B21+0.05))*(J21 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.70473623278918396</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="7"/>
-        <v>5.6946693221781137</v>
-      </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B21) - EXP(B21) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.66836279385932407</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="4"/>
-        <v>0.70868341104617372</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="0"/>
-        <v>0.69451335998302854</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="1"/>
-        <v>0.74504539742137865</v>
-      </c>
-      <c r="P21" s="13">
-        <f t="shared" si="8"/>
-        <v>5.6862334401060517</v>
-      </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="5"/>
-        <v>6.3373649908869378</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="2"/>
-        <v>6.3890560989306504</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="6"/>
-        <v>7.7710045960815251</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="3"/>
-        <v>0.77710045960815255</v>
-      </c>
-      <c r="H22" s="12">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B22) - EXP(B22) * Таблица3[[#This Row],[ui]])</f>
-        <v>0.73125833876824453</v>
-      </c>
-      <c r="I22" s="12">
-        <f>0.1*((EXP(2*(B22+0.05)))-EXP((B22+0.05))*(J22 + Таблица3[[#This Row],[k1]] / 2))</f>
-        <v>0.77901668778688349</v>
-      </c>
-      <c r="J22" s="13">
-        <f xml:space="preserve"> J21 + I21</f>
-        <v>6.3994055549672977</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11">
-        <f xml:space="preserve"> 0.1 * (EXP(2 * B22) - EXP(B22) * Таблица4[[#This Row],[ui]])</f>
-        <v>0.73855268635839555</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="4"/>
-        <v>0.78385193603956371</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="0"/>
-        <v>0.76625793145390309</v>
-      </c>
-      <c r="O22" s="11">
-        <f t="shared" si="1"/>
-        <v>0.82509204827574301</v>
-      </c>
-      <c r="P22" s="13">
-        <f t="shared" si="8"/>
-        <v>6.3895337289959029</v>
-      </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="5">
-        <f xml:space="preserve"> ($B$22 - $B$2) / 20</f>
+        <f xml:space="preserve"> ($O$22 - $O$2) / 20</f>
         <v>0.1</v>
       </c>
       <c r="C24" s="3"/>
@@ -8313,7 +8458,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8321,7 +8466,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58">
         <f xml:space="preserve"> EXP(1)</f>
         <v>2.7182818284590451</v>
@@ -8343,99 +8488,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
     <col min="26" max="26" width="37" customWidth="1"/>
-    <col min="27" max="27" width="33.6640625" customWidth="1"/>
+    <col min="27" max="27" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
-    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="20">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <f xml:space="preserve"> $B$24</f>
         <v>3</v>
       </c>
@@ -8443,2036 +8588,1913 @@
         <f xml:space="preserve"> $B$25</f>
         <v>5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12">
-        <f xml:space="preserve"> 0.1 * L2</f>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G22" si="0" xml:space="preserve"> 0.1 * L2</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f xml:space="preserve"> 0.1 * (((I2 + J2) / 2) + I2)</f>
-        <v>0.45465512754226944</v>
-      </c>
-      <c r="I2" s="12">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * L2))</f>
-        <v>2.1</v>
-      </c>
-      <c r="J2" s="12">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (L2 + I2)))</f>
-        <v>2.7931025508453886</v>
-      </c>
-      <c r="K2" s="13">
+        <v>0.31065512754226948</v>
+      </c>
+      <c r="I2" s="11">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * K2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J22" si="1" xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (K2 + G2))</f>
+        <v>1.713102550845389</v>
+      </c>
+      <c r="K2" s="11">
         <v>3</v>
       </c>
       <c r="L2" s="12">
         <v>5</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2) - (-3 * W2))</f>
-        <v>2.1</v>
-      </c>
-      <c r="O2" s="11">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + R2 / 2)))</f>
-        <v>2.2207626578256145</v>
-      </c>
-      <c r="P2" s="11">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) - (-3 * (W2 + S2 / 2)))</f>
-        <v>2.2253770564994571</v>
-      </c>
-      <c r="Q2" s="11">
-        <f t="shared" ref="Q2:Q22" si="0" xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) - (-3 * (W2 + T2)))</f>
-        <v>2.352331348193073</v>
-      </c>
-      <c r="R2" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2) + 3 * W2)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="S2" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.63076265782561458</v>
-      </c>
-      <c r="T2" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.63076265782561458</v>
-      </c>
-      <c r="U2" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
+      <c r="O2" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>0.72076265782561455</v>
+      </c>
+      <c r="P2" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.05) + 3 * (W2 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>0.72537705649945661</v>
+      </c>
+      <c r="Q2" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B2 + 0.1) + 3 * (W2 + Таблица8[[#This Row],[k3]]))</f>
+        <v>0.8807156677952257</v>
+      </c>
+      <c r="R2" s="10">
+        <f xml:space="preserve"> 0.1 * (6 * EXP(B2))</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S2" s="10">
+        <f t="shared" ref="S2:S22" si="2" xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</f>
+        <v>0.63076265782561447</v>
+      </c>
+      <c r="T2" s="10">
+        <f t="shared" ref="T2:T22" si="3" xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.05))</f>
+        <v>0.63076265782561447</v>
+      </c>
+      <c r="U2" s="10">
+        <f t="shared" ref="U2:U22" si="4" xml:space="preserve"> 0.1 * (6 * EXP(B2 + 0.1))</f>
         <v>0.66310255084538872</v>
       </c>
-      <c r="V2" s="13">
-        <v>3</v>
-      </c>
-      <c r="W2" s="11">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
     </row>
-    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="20">
         <v>0.1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <f xml:space="preserve"> C2 + (0.1 * D2)</f>
         <v>3.5</v>
       </c>
       <c r="D3" s="12">
-        <f xml:space="preserve"> D2 +  (0.1 * (6 * EXP(B2) - (-3 * C2)))</f>
+        <f xml:space="preserve"> D2 +  (0.1 * (6 * EXP(B2) + 3 * C2))</f>
         <v>6.5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>4.1672917199100237</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G22" si="1" xml:space="preserve"> 0.1 * L3</f>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11">
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f xml:space="preserve"> 0.1 * (((I3 + J3) / 2) + I3)</f>
-        <v>0.56530400363429423</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I22" si="2" xml:space="preserve"> 0.1 *  (6 * EXP(B3) - (-3 * L3))</f>
+        <v>0.48943737882818045</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I22" si="5" xml:space="preserve"> 0.1 *  (6 * EXP(B3) + 3 * L3)</f>
         <v>2.6131025508453889</v>
       </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:J22" si="3" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.1) - (-3 * (L3 + I3)))</f>
-        <v>3.4667724201497183</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>1.9494399240274427</v>
+      </c>
+      <c r="K3" s="11">
         <f xml:space="preserve"> K2 + ((G2 + H2) / 2)</f>
-        <v>3.4773275637711345</v>
+        <v>3.4053275637711349</v>
       </c>
       <c r="L3" s="12">
-        <f xml:space="preserve"> L2 +  (0.1 * (6 * EXP(B2) - (-3 * K2)))</f>
+        <f xml:space="preserve"> L2 +  (0.1 * (6 * EXP(B2) + 3 * K2))</f>
         <v>6.5</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11">
-        <f t="shared" ref="N3:N22" si="4" xml:space="preserve"> 0.1 *  (6 * EXP(B3) - (-3 * W3))</f>
-        <v>2.3524102099527808</v>
-      </c>
-      <c r="O3" s="11">
-        <f t="shared" ref="O3:O21" si="5" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + R3 / 2)))</f>
-        <v>2.4858735873711706</v>
-      </c>
-      <c r="P3" s="11">
-        <f t="shared" ref="P3:P22" si="6" xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) - (-3 * (W3 + S3 / 2)))</f>
-        <v>2.4909732865899077</v>
-      </c>
-      <c r="Q3" s="11">
-        <f t="shared" si="0"/>
-        <v>2.6312794776945854</v>
-      </c>
-      <c r="R3" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N22" si="6" xml:space="preserve"> 0.1 *  (6 * EXP(B3) + 3 * W3)</f>
         <v>0.66310255084538872</v>
       </c>
-      <c r="S3" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.69710054563696999</v>
-      </c>
-      <c r="T3" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.69710054563696999</v>
-      </c>
-      <c r="U3" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
+      <c r="O3" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) + 3 * (W3 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>0.79656592826377814</v>
+      </c>
+      <c r="P3" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.05) + 3 * (W3 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>0.80166562748251524</v>
+      </c>
+      <c r="Q3" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B3 + 0.1) + 3 * (W3 + Таблица8[[#This Row],[l3]]))</f>
+        <v>0.94197181858719292</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" ref="R2:R22" si="7" xml:space="preserve"> 0.1 * (6 * EXP(B3))</f>
+        <v>0.66310255084538872</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="2"/>
+        <v>0.69710054563696988</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="3"/>
+        <v>0.69710054563696988</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="4"/>
         <v>0.73284165489610198</v>
       </c>
-      <c r="V3" s="13">
-        <f xml:space="preserve"> V2 + ((N2 + 2 * O2 + 2 * P2 + Q2) / 6)</f>
-        <v>5.2241017961405358</v>
-      </c>
-      <c r="W3" s="11">
-        <f xml:space="preserve"> W2 + ((R2 + 2 * S2 + 2 * T2 + U2) / 6)</f>
-        <v>5.6310255303579746</v>
-      </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="20">
         <v>0.2</v>
       </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C22" si="7" xml:space="preserve"> C3 + (0.1 * D3)</f>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C22" si="8" xml:space="preserve"> C3 + (0.1 * D3)</f>
         <v>4.1500000000000004</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" ref="D4:D22" si="8" xml:space="preserve"> D3 +  (0.1 * (6 * EXP(B3) - (-3 * C3)))</f>
+        <f t="shared" ref="D4:D22" si="9" xml:space="preserve"> D3 +  (0.1 * (6 * EXP(B3) + 3 * C3))</f>
         <v>8.2131025508453881</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>5.5264465798641798</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12">
+      <c r="F4" s="10"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.81847008199767302</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H22" si="10" xml:space="preserve"> 0.1 * (((I4 + J4) / 2) + I4)</f>
+        <v>0.59063629438839171</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="5"/>
+        <v>3.1882519008891208</v>
+      </c>
+      <c r="J4" s="11">
         <f t="shared" si="1"/>
-        <v>0.82063008199767296</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" ref="H3:H22" si="9" xml:space="preserve"> 0.1 * (((I4 + J4) / 2) + I4)</f>
-        <v>0.69072104017363589</v>
-      </c>
-      <c r="I4" s="12">
+        <v>2.2479701851004714</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K22" si="11" xml:space="preserve"> K3 + ((G3 + H3) / 2)</f>
+        <v>3.9750462531852251</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:L22" si="12" xml:space="preserve"> L3 +  (0.1 * (6 * EXP(B3) + 3 * K3))</f>
+        <v>8.1847008199767295</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10">
+        <f t="shared" si="6"/>
+        <v>0.73284165489610198</v>
+      </c>
+      <c r="O4" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B4 + 0.05) + 3 * (W4 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>0.88034149824706009</v>
+      </c>
+      <c r="P4" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B4 + 0.05) + 3 * (W4 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>0.88597753751454167</v>
+      </c>
+      <c r="Q4" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B4 + 0.1) + 3 * (V4 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.0757085457999644</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" si="7"/>
+        <v>0.73284165489610198</v>
+      </c>
+      <c r="S4" s="10">
         <f t="shared" si="2"/>
-        <v>3.1947319008891206</v>
-      </c>
-      <c r="J4" s="12">
+        <v>0.77041525001264488</v>
+      </c>
+      <c r="T4" s="10">
         <f t="shared" si="3"/>
-        <v>4.2302251008053569</v>
-      </c>
-      <c r="K4" s="13">
-        <f t="shared" ref="K4:K22" si="10" xml:space="preserve"> K3 + ((G3 + H3) / 2)</f>
-        <v>4.0849795655882817</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" ref="L4:L22" si="11" xml:space="preserve"> L3 +  (0.1 * (6 * EXP(B3) - (-3 * K3)))</f>
-        <v>8.2063008199767289</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11">
+        <v>0.77041525001264488</v>
+      </c>
+      <c r="U4" s="10">
         <f t="shared" si="4"/>
-        <v>2.6313666334179633</v>
-      </c>
-      <c r="O4" s="11">
-        <f t="shared" si="5"/>
-        <v>2.7788664767689215</v>
-      </c>
-      <c r="P4" s="11">
-        <f t="shared" si="6"/>
-        <v>2.7845025160364028</v>
-      </c>
-      <c r="Q4" s="11">
-        <f t="shared" si="0"/>
-        <v>2.9395648380712567</v>
-      </c>
-      <c r="R4" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>0.73284165489610198</v>
-      </c>
-      <c r="S4" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.77041525001264499</v>
-      </c>
-      <c r="T4" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.77041525001264499</v>
-      </c>
-      <c r="U4" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>0.80991528454560202</v>
-      </c>
-      <c r="V4" s="13">
-        <f t="shared" ref="V4:V22" si="12" xml:space="preserve"> V3 + ((N3 + 2 * O3 + 2 * P3 + Q3) / 6)</f>
-        <v>7.7136657020687895</v>
-      </c>
-      <c r="W4" s="11">
-        <f t="shared" ref="W4:W22" si="13" xml:space="preserve"> W3 + ((R3 + 2 * S3 + 2 * T3 + U3) / 6)</f>
-        <v>6.3284165950728699</v>
-      </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+        <v>0.80991528454560191</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
     </row>
-    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="20">
         <v>0.3</v>
       </c>
-      <c r="C5" s="13">
-        <f t="shared" si="7"/>
+      <c r="C5" s="11">
+        <f t="shared" si="8"/>
         <v>4.9713102550845392</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.19094420574149</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>7.1253384462373202</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>1.01100563508284</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="10"/>
+        <v>0.70655364554527278</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="5"/>
+        <v>3.8429321897941215</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
-        <v>1.0164636344549316</v>
-      </c>
-      <c r="H5" s="12">
+        <v>2.6022763415230914</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="11"/>
+        <v>4.6795994413782571</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="12"/>
+        <v>10.110056350828399</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
+        <f t="shared" si="6"/>
+        <v>0.80991528454560191</v>
+      </c>
+      <c r="O5" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B5 + 0.05) + 3 * (W5 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>0.97292782183779458</v>
+      </c>
+      <c r="P5" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B5 + 0.05) + 3 * (W5 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>0.97915660852934749</v>
+      </c>
+      <c r="Q5" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B5 + 0.1) + 3 * (V5 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.1888418011435664</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="7"/>
+        <v>0.80991528454560191</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.85144052915595436</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="3"/>
+        <v>0.85144052915595436</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.89509481858476225</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="8"/>
+        <v>5.9904046756586879</v>
+      </c>
+      <c r="D6" s="12">
         <f t="shared" si="9"/>
-        <v>0.83400980710269335</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="2"/>
-        <v>3.8593061879103967</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="3"/>
-        <v>5.1022775783226759</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="10"/>
-        <v>4.8406551266739362</v>
-      </c>
-      <c r="L5" s="12">
-        <f t="shared" si="11"/>
-        <v>10.164636344549315</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11">
-        <f t="shared" si="4"/>
-        <v>2.939661160042077</v>
-      </c>
-      <c r="O5" s="11">
-        <f t="shared" si="5"/>
-        <v>3.1026736973342701</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" si="6"/>
-        <v>3.1089024840258226</v>
-      </c>
-      <c r="Q5" s="11">
-        <f t="shared" si="0"/>
-        <v>3.2802728528280243</v>
-      </c>
-      <c r="R5" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>0.80991528454560202</v>
-      </c>
-      <c r="S5" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.85144052915595436</v>
-      </c>
-      <c r="T5" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.85144052915595436</v>
-      </c>
-      <c r="U5" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>0.89509481858476236</v>
-      </c>
-      <c r="V5" s="13">
-        <f t="shared" si="12"/>
-        <v>10.496610611585433</v>
-      </c>
-      <c r="W5" s="11">
-        <f t="shared" si="13"/>
-        <v>7.0991529183215842</v>
-      </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="7"/>
-        <v>5.9904046756586879</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="8"/>
         <v>12.492252566812454</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>9.0197871939140501</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2323851467787479</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="10"/>
+        <v>0.83986064038622077</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="5"/>
+        <v>4.5922502589210055</v>
+      </c>
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
-        <v>1.2426748167097099</v>
-      </c>
-      <c r="H6" s="12">
+        <v>3.0204620309613954</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="11"/>
+        <v>5.5383790816923133</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="12"/>
+        <v>12.323851467787478</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
+        <f t="shared" si="6"/>
+        <v>0.89509481858476225</v>
+      </c>
+      <c r="O6" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B6 + 0.05) + 3 * (W6 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.0752515340818156</v>
+      </c>
+      <c r="P6" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B6 + 0.05) + 3 * (W6 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.0821354079882166</v>
+      </c>
+      <c r="Q6" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B6 + 0.1) + 3 * (V6 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.313873384816542</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="7"/>
+        <v>0.89509481858476225</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.9409873112941014</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.9409873112941014</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="4"/>
+        <v>0.98923276242007696</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="8"/>
+        <v>7.2396299323399331</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="9"/>
-        <v>0.99867753996525266</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="2"/>
-        <v>4.623119268713892</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="3"/>
-        <v>6.104192993163374</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" si="10"/>
-        <v>5.7658918474527487</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="11"/>
-        <v>12.426748167097099</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11">
-        <f t="shared" si="4"/>
-        <v>3.2803793050689465</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="5"/>
-        <v>3.4605360205659998</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="6"/>
-        <v>3.4674198944724015</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="0"/>
-        <v>3.6568134422924916</v>
-      </c>
-      <c r="R6" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>0.89509481858476236</v>
-      </c>
-      <c r="S6" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.94098731129410151</v>
-      </c>
-      <c r="T6" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>0.94098731129410151</v>
-      </c>
-      <c r="U6" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>0.98923276242007707</v>
-      </c>
-      <c r="V6" s="13">
-        <f t="shared" si="12"/>
-        <v>13.603791674183814</v>
-      </c>
-      <c r="W6" s="11">
-        <f t="shared" si="13"/>
-        <v>7.950948288280614</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="7"/>
-        <v>7.2396299323399331</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="8"/>
         <v>15.184468788094822</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>11.275314888498656</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4880460010879935</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="10"/>
+        <v>0.99360739850976576</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="5"/>
+        <v>5.4533707656840571</v>
+      </c>
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
-        <v>1.5051610539917686</v>
-      </c>
-      <c r="H7" s="12">
+        <v>3.5120356731431421</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="11"/>
+        <v>6.5745019752747975</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="12"/>
+        <v>14.880460010879935</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <f t="shared" si="6"/>
+        <v>0.98923276242007696</v>
+      </c>
+      <c r="O7" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B7 + 0.05) + 3 * (W7 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.1883367250834487</v>
+      </c>
+      <c r="P7" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B7 + 0.05) + 3 * (W7 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.1959445823285029</v>
+      </c>
+      <c r="Q7" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B7 + 0.1) + 3 * (V7 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.4520546549328561</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="7"/>
+        <v>0.98923276242007696</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0399518107204373</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="3"/>
+        <v>1.0399518107204373</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="4"/>
+        <v>1.0932712802343054</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="8"/>
+        <v>8.7580768111494152</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="9"/>
-        <v>1.1887158496357189</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>5.5047159243953825</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="3"/>
-        <v>7.2601692195282261</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="10"/>
-        <v>6.88656802579023</v>
-      </c>
-      <c r="L7" s="12">
-        <f t="shared" si="11"/>
-        <v>15.051610539917686</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
-        <f t="shared" si="4"/>
-        <v>3.6569310902133232</v>
-      </c>
-      <c r="O7" s="11">
-        <f t="shared" si="5"/>
-        <v>3.8560350528766953</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" si="6"/>
-        <v>3.8636429101217495</v>
-      </c>
-      <c r="Q7" s="11">
-        <f t="shared" si="0"/>
-        <v>4.0729551512436828</v>
-      </c>
-      <c r="R7" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>0.98923276242007707</v>
-      </c>
-      <c r="S7" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.0399518107204373</v>
-      </c>
-      <c r="T7" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.0399518107204373</v>
-      </c>
-      <c r="U7" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.0932712802343054</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="12"/>
-        <v>17.069309103756854</v>
-      </c>
-      <c r="W7" s="11">
-        <f t="shared" si="13"/>
-        <v>8.8923277593108221</v>
-      </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="7"/>
-        <v>8.7580768111494152</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="8"/>
         <v>18.345590530216878</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>13.969201902372081</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7842043365882452</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="10"/>
+        <v>1.1712882198988994</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="5"/>
+        <v>6.4458842899990403</v>
+      </c>
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
-        <v>1.8106813710074832</v>
-      </c>
-      <c r="H8" s="12">
+        <v>4.0881115279808631</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="11"/>
+        <v>7.815328675073677</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="12"/>
+        <v>17.84204336588245</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10">
+        <f t="shared" si="6"/>
+        <v>1.0932712802343054</v>
+      </c>
+      <c r="O8" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B8 + 0.05) + 3 * (W8 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.3133151894434836</v>
+      </c>
+      <c r="P8" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B8 + 0.05) + 3 * (W8 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.3217231720195886</v>
+      </c>
+      <c r="Q8" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B8 + 0.1) + 3 * (V8 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.6047685760881625</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="7"/>
+        <v>1.0932712802343054</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1493244974083379</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="3"/>
+        <v>1.1493244974083379</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="4"/>
+        <v>1.2082516244822861</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="8"/>
+        <v>10.592635864171104</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="9"/>
-        <v>1.4086918267626014</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="2"/>
-        <v>6.5253153932567542</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="3"/>
-        <v>8.5978903554817627</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="10"/>
-        <v>8.2335064776039744</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="11"/>
-        <v>18.106813710074832</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0730851723043591</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="5"/>
-        <v>4.2931290815135368</v>
-      </c>
-      <c r="P8" s="11">
-        <f t="shared" si="6"/>
-        <v>4.3015370640896418</v>
-      </c>
-      <c r="Q8" s="11">
-        <f t="shared" si="0"/>
-        <v>4.5328628657748409</v>
-      </c>
-      <c r="R8" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.0932712802343054</v>
-      </c>
-      <c r="S8" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.1493244974083379</v>
-      </c>
-      <c r="T8" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.1493244974083379</v>
-      </c>
-      <c r="U8" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.2082516244822861</v>
-      </c>
-      <c r="V8" s="13">
-        <f t="shared" si="12"/>
-        <v>20.93084946499917</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" si="13"/>
-        <v>9.9327129735668436</v>
-      </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="7"/>
-        <v>10.592635864171104</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="8"/>
         <v>22.066284853796009</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>17.19290565850384</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12">
+      <c r="F9" s="10"/>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1279913248638862</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="10"/>
+        <v>1.3769160618885827</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="5"/>
+        <v>7.5922255990739433</v>
+      </c>
+      <c r="J9" s="11">
         <f t="shared" si="1"/>
-        <v>2.1670136933590327</v>
-      </c>
-      <c r="H9" s="12">
+        <v>4.7616444405498219</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="11"/>
+        <v>9.2930749533172499</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="12"/>
+        <v>21.279913248638859</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10">
+        <f t="shared" si="6"/>
+        <v>1.2082516244822861</v>
+      </c>
+      <c r="O9" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B9 + 0.05) + 3 * (W9 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.4514377536399479</v>
+      </c>
+      <c r="P9" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B9 + 0.05) + 3 * (W9 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.4607300114627457</v>
+      </c>
+      <c r="Q9" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B9 + 0.1) + 3 * (V9 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.7735435605343044</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="7"/>
+        <v>1.2082516244822861</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="2"/>
+        <v>1.270200009967605</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="3"/>
+        <v>1.270200009967605</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="4"/>
+        <v>1.3353245570954806</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="8"/>
+        <v>12.799264349550706</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="9"/>
-        <v>1.6638515781109278</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="2"/>
-        <v>7.7092927045593846</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="3"/>
-        <v>10.149153448540396</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="10"/>
-        <v>9.8431930764890172</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" si="11"/>
-        <v>21.670136933590328</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11">
-        <f t="shared" si="4"/>
-        <v>4.5330065612698363</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="5"/>
-        <v>4.7761926904274983</v>
-      </c>
-      <c r="P9" s="11">
-        <f t="shared" si="6"/>
-        <v>4.7854849482502964</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="0"/>
-        <v>5.0411394968733125</v>
-      </c>
-      <c r="R9" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.2082516244822861</v>
-      </c>
-      <c r="S9" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.270200009967605</v>
-      </c>
-      <c r="T9" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.270200009967605</v>
-      </c>
-      <c r="U9" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.3353245570954806</v>
-      </c>
-      <c r="V9" s="13">
-        <f t="shared" si="12"/>
-        <v>25.230062853213429</v>
-      </c>
-      <c r="W9" s="11">
-        <f t="shared" si="13"/>
-        <v>11.082516455958501</v>
-      </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="7"/>
-        <v>12.799264349550706</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="8"/>
         <v>26.452327237529627</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>21.054915692016678</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5276087359116324</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="10"/>
+        <v>1.6151077687983417</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="5"/>
+        <v>8.9181507648303775</v>
+      </c>
+      <c r="J10" s="11">
         <f t="shared" si="1"/>
-        <v>2.5831346481019324</v>
-      </c>
-      <c r="H10" s="12">
+        <v>5.5477030814757047</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="11"/>
+        <v>11.045528646693484</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="12"/>
+        <v>25.276087359116321</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10">
+        <f t="shared" si="6"/>
+        <v>1.3353245570954808</v>
+      </c>
+      <c r="O10" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B10 + 0.05) + 3 * (W10 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.6040867947199169</v>
+      </c>
+      <c r="P10" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B10 + 0.05) + 3 * (W10 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.6143563278289339</v>
+      </c>
+      <c r="Q10" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B10 + 0.1) + 3 * (V10 + Таблица8[[#This Row],[k3]]))</f>
+        <v>1.9600687650428501</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="7"/>
+        <v>1.3353245570954808</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4037881111555948</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="3"/>
+        <v>1.4037881111555948</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="4"/>
+        <v>1.4757618666941701</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="8"/>
+        <v>15.444497073303669</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="9"/>
-        <v>1.9602384932812094</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="2"/>
-        <v>9.084728501401278</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="3"/>
-        <v>11.950584361420349</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" si="10"/>
-        <v>11.758625712223997</v>
-      </c>
-      <c r="L10" s="12">
-        <f t="shared" si="11"/>
-        <v>25.83134648101932</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11">
-        <f t="shared" si="4"/>
-        <v>5.0412983049554398</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="5"/>
-        <v>5.3100605425798761</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" si="6"/>
-        <v>5.3203300756888936</v>
-      </c>
-      <c r="Q10" s="11">
-        <f t="shared" si="0"/>
-        <v>5.6028720479008092</v>
-      </c>
-      <c r="R10" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.3353245570954808</v>
-      </c>
-      <c r="S10" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.403788111155595</v>
-      </c>
-      <c r="T10" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.403788111155595</v>
-      </c>
-      <c r="U10" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.4757618666941701</v>
-      </c>
-      <c r="V10" s="13">
-        <f t="shared" si="12"/>
-        <v>30.012979742463219</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" si="13"/>
-        <v>12.353245826199865</v>
-      </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="7"/>
-        <v>15.444497073303669</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="8"/>
         <v>31.62743109949032</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>25.684131941292655</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9925070510219847</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="10"/>
+        <v>1.891181817068847</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="5"/>
+        <v>10.453283019760123</v>
+      </c>
+      <c r="J11" s="11">
         <f t="shared" si="1"/>
-        <v>3.0694258751782004</v>
-      </c>
-      <c r="H11" s="12">
+        <v>6.4637872820965647</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="11"/>
+        <v>13.11688689904847</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="12"/>
+        <v>29.925070510219847</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10">
+        <f t="shared" si="6"/>
+        <v>1.4757618666941701</v>
+      </c>
+      <c r="O11" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B11 + 0.05) + 3 * (W11 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.7727900755936337</v>
+      </c>
+      <c r="P11" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B11 + 0.05) + 3 * (W11 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.7841396649279344</v>
+      </c>
+      <c r="Q11" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B11 + 0.1) + 3 * (V11 + Таблица8[[#This Row],[k3]]))</f>
+        <v>2.1662109965538074</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4757618666941701</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="2"/>
+        <v>1.5514257955895081</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" si="3"/>
+        <v>1.5514257955895081</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="4"/>
+        <v>1.6309690970754271</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="8"/>
+        <v>18.607240183252699</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="9"/>
-        <v>2.3048288523482485</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="2"/>
-        <v>10.68403949222877</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="3"/>
-        <v>14.044458570278659</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="10"/>
-        <v>14.030312282915569</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="11"/>
-        <v>30.694258751782002</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11">
-        <f t="shared" si="4"/>
-        <v>5.6030475579747305</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="5"/>
-        <v>5.9000757668741945</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="6"/>
-        <v>5.911425356208496</v>
-      </c>
-      <c r="Q11" s="11">
-        <f t="shared" si="0"/>
-        <v>6.2236825270328415</v>
-      </c>
-      <c r="R11" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.4757618666941701</v>
-      </c>
-      <c r="S11" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.5514257955895081</v>
-      </c>
-      <c r="T11" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.5514257955895081</v>
-      </c>
-      <c r="U11" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.6309690970754274</v>
-      </c>
-      <c r="V11" s="13">
-        <f t="shared" si="12"/>
-        <v>35.33047167402885</v>
-      </c>
-      <c r="W11" s="11">
-        <f t="shared" si="13"/>
-        <v>13.757618970935203</v>
-      </c>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
-        <f t="shared" si="7"/>
-        <v>18.607240183252699</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="8"/>
         <v>37.73654208817559</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>31.233869026543736</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5335898446628562</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="10"/>
+        <v>2.2112705930443441</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="5"/>
+        <v>12.231738631063998</v>
+      </c>
+      <c r="J12" s="11">
         <f t="shared" si="1"/>
-        <v>3.6379114303350848</v>
-      </c>
-      <c r="H12" s="12">
+        <v>7.5301959676948833</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="11"/>
+        <v>15.558731333093887</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="12"/>
+        <v>35.335898446628562</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10">
+        <f t="shared" si="6"/>
+        <v>1.6309690970754271</v>
+      </c>
+      <c r="O12" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B12 + 0.05) + 3 * (W12 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>1.9592360353992124</v>
+      </c>
+      <c r="P12" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B12 + 0.05) + 3 * (W12 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>1.9717792714635831</v>
+      </c>
+      <c r="Q12" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B12 + 0.1) + 3 * (V12 + Таблица8[[#This Row],[k3]]))</f>
+        <v>2.3940333958069351</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6309690970754271</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="2"/>
+        <v>1.7145906708378984</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="3"/>
+        <v>1.7145906708378984</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="4"/>
+        <v>1.80249961436786</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="8"/>
+        <v>22.38089439207026</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="9"/>
-        <v>2.7056877543019682</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>12.544703388080682</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="3"/>
-        <v>16.47964492179732</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="10"/>
-        <v>16.717439646678791</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="11"/>
-        <v>36.379114303350846</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <f t="shared" si="4"/>
-        <v>6.2238764956623704</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="5"/>
-        <v>6.5521434339861564</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" si="6"/>
-        <v>6.5646866700505262</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9097842142061729</v>
-      </c>
-      <c r="R12" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.6309690970754274</v>
-      </c>
-      <c r="S12" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.7145906708378986</v>
-      </c>
-      <c r="T12" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.7145906708378986</v>
-      </c>
-      <c r="U12" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.8024996143678602</v>
-      </c>
-      <c r="V12" s="13">
-        <f t="shared" si="12"/>
-        <v>41.238760395891006</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" si="13"/>
-        <v>15.309691328623142</v>
-      </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C13" s="13">
-        <f t="shared" si="7"/>
-        <v>22.38089439207026</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="8"/>
         <v>44.949683240226825</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>37.886608221921691</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12">
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1634486943632156</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="10"/>
+        <v>2.5824495159953829</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="5"/>
+        <v>14.292845697457507</v>
+      </c>
+      <c r="J13" s="11">
         <f t="shared" si="1"/>
-        <v>4.3025315294429909</v>
-      </c>
-      <c r="H13" s="12">
+        <v>8.770453227535139</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="11"/>
+        <v>18.431161551947486</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="12"/>
+        <v>41.634486943632155</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
+        <f t="shared" si="6"/>
+        <v>1.80249961436786</v>
+      </c>
+      <c r="O13" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B13 + 0.05) + 3 * (W13 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>2.1652906879690401</v>
+      </c>
+      <c r="P13" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B13 + 0.05) + 3 * (W13 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>2.1791531076859401</v>
+      </c>
+      <c r="Q13" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B13 + 0.1) + 3 * (V13 + Таблица8[[#This Row],[k3]]))</f>
+        <v>2.6458160859477111</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="7"/>
+        <v>1.80249961436786</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8949157458138608</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" si="3"/>
+        <v>1.8949157458138608</v>
+      </c>
+      <c r="U13" s="10">
+        <f t="shared" si="4"/>
+        <v>1.9920701536419287</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="8"/>
+        <v>26.875862716092943</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="9"/>
-        <v>3.1721487805435231</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="2"/>
-        <v>14.710094202696835</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="3"/>
-        <v>19.312693002779952</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" si="10"/>
-        <v>19.88923923899732</v>
-      </c>
-      <c r="L13" s="12">
-        <f t="shared" si="11"/>
-        <v>43.025315294429909</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11">
-        <f t="shared" si="4"/>
-        <v>6.9099985826945476</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="5"/>
-        <v>7.2727896562957257</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="6"/>
-        <v>7.2866520760126265</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="0"/>
-        <v>7.6680438457127735</v>
-      </c>
-      <c r="R13" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.8024996143678602</v>
-      </c>
-      <c r="S13" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.894915745813861</v>
-      </c>
-      <c r="T13" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>1.894915745813861</v>
-      </c>
-      <c r="U13" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>1.9920701536419292</v>
-      </c>
-      <c r="V13" s="13">
-        <f t="shared" si="12"/>
-        <v>47.799980548881322</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="13"/>
-        <v>17.024996561088955</v>
-      </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="13">
-        <f t="shared" si="7"/>
-        <v>26.875862716092943</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="8"/>
         <v>53.466451172215763</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>45.859641448494237</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8966335023584264</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="10"/>
+        <v>3.0128856615284372</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="5"/>
+        <v>16.681970660717209</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
-        <v>5.0794586680496963</v>
-      </c>
-      <c r="H14" s="12">
+        <v>10.21180124841711</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="11"/>
+        <v>21.804110657126785</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="12"/>
+        <v>48.966335023584264</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10">
+        <f t="shared" si="6"/>
+        <v>1.9920701536419285</v>
+      </c>
+      <c r="O14" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B14 + 0.05) + 3 * (W14 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>2.3930162975233942</v>
+      </c>
+      <c r="P14" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B14 + 0.05) + 3 * (W14 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>2.4083366406486704</v>
+      </c>
+      <c r="Q14" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B14 + 0.1) + 3 * (V14 + Таблица8[[#This Row],[k3]]))</f>
+        <v>2.9240789927661481</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="7"/>
+        <v>1.9920701536419285</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0942057744771048</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="3"/>
+        <v>2.0942057744771048</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="4"/>
+        <v>2.2015780005715468</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="W14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="8"/>
+        <v>32.222507833314523</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="9"/>
-        <v>3.7150213162715504</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="2"/>
-        <v>17.230446157791018</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="3"/>
-        <v>22.609087852057943</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="10"/>
-        <v>23.626579393990575</v>
-      </c>
-      <c r="L14" s="12">
-        <f t="shared" si="11"/>
-        <v>50.794586680496963</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
-        <f t="shared" si="4"/>
-        <v>7.6682807595318767</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="5"/>
-        <v>8.0692269034133428</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="6"/>
-        <v>8.0845472465386194</v>
-      </c>
-      <c r="Q14" s="11">
-        <f t="shared" si="0"/>
-        <v>8.5060503388046254</v>
-      </c>
-      <c r="R14" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>1.9920701536419287</v>
-      </c>
-      <c r="S14" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.0942057744771052</v>
-      </c>
-      <c r="T14" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.0942057744771052</v>
-      </c>
-      <c r="U14" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>2.2015780005715468</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" si="12"/>
-        <v>55.082801531051992</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" si="13"/>
-        <v>18.920702019633161</v>
-      </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="7"/>
-        <v>32.222507833314523</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="8"/>
         <v>63.521280140685576</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>55.411778591449348</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7499638374364235</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="10"/>
+        <v>3.5120089370850631</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="5"/>
+        <v>19.45146951288082</v>
+      </c>
+      <c r="J15" s="11">
         <f t="shared" si="1"/>
-        <v>5.9874630652336069</v>
-      </c>
-      <c r="H15" s="12">
+        <v>11.885770203058797</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="11"/>
+        <v>25.758870239070216</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="12"/>
+        <v>57.499638374364231</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10">
+        <f t="shared" si="6"/>
+        <v>2.2015780005715468</v>
+      </c>
+      <c r="O15" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B15 + 0.05) + 3 * (W15 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>2.6446920185039167</v>
+      </c>
+      <c r="P15" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B15 + 0.05) + 3 * (W15 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>2.6616236161809121</v>
+      </c>
+      <c r="Q15" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B15 + 0.1) + 3 * (V15 + Таблица8[[#This Row],[k3]]))</f>
+        <v>3.2316070649610786</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="7"/>
+        <v>2.2015780005715468</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3144553184181844</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="3"/>
+        <v>2.3144553184181844</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="4"/>
+        <v>2.4331199801068055</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="8"/>
+        <v>38.574635847383078</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="9"/>
-        <v>4.346830046175322</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="2"/>
-        <v>20.163967196272367</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="3"/>
-        <v>26.444699334689336</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="10"/>
-        <v>28.023819386151196</v>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="11"/>
-        <v>59.874630652336066</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11">
-        <f t="shared" si="4"/>
-        <v>8.5063121690675896</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="5"/>
-        <v>8.9494261869999594</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="6"/>
-        <v>8.9663577846769567</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="0"/>
-        <v>9.4321907441283042</v>
-      </c>
-      <c r="R15" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>2.2015780005715468</v>
-      </c>
-      <c r="S15" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.3144553184181849</v>
-      </c>
-      <c r="T15" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.3144553184181849</v>
-      </c>
-      <c r="U15" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>2.4331199801068055</v>
-      </c>
-      <c r="V15" s="13">
-        <f t="shared" si="12"/>
-        <v>63.163114764092064</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="13"/>
-        <v>21.015780561653479</v>
-      </c>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="13">
-        <f t="shared" si="7"/>
-        <v>38.574635847383078</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="8"/>
         <v>75.389610491251489</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>66.851321588494713</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7428877446656843</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="10"/>
+        <v>4.0907093197906708</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="5"/>
+        <v>22.66178321410386</v>
+      </c>
+      <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>7.0483354468752983</v>
-      </c>
-      <c r="H16" s="12">
+        <v>13.828836753501832</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="11"/>
+        <v>30.38985662633096</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="12"/>
+        <v>67.428877446656841</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10">
+        <f t="shared" si="6"/>
+        <v>2.4331199801068046</v>
+      </c>
+      <c r="O16" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B16 + 0.05) + 3 * (W16 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>2.9228367061173111</v>
+      </c>
+      <c r="P16" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B16 + 0.05) + 3 * (W16 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>2.9415490154664838</v>
+      </c>
+      <c r="Q16" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B16 + 0.1) + 3 * (V16 + Таблица8[[#This Row],[k3]]))</f>
+        <v>3.5714781468427845</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="7"/>
+        <v>2.4331199801068046</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5578687091012906</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="3"/>
+        <v>2.5578687091012906</v>
+      </c>
+      <c r="U16" s="10">
+        <f t="shared" si="4"/>
+        <v>2.6890134422028389</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="8"/>
+        <v>46.113596896508227</v>
+      </c>
+      <c r="D17" s="12">
         <f t="shared" si="9"/>
-        <v>5.0820918320623321</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>23.5781263207327</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="3"/>
-        <v>30.907457679048537</v>
-      </c>
-      <c r="K16" s="13">
-        <f t="shared" si="10"/>
-        <v>33.190965941855659</v>
-      </c>
-      <c r="L16" s="12">
-        <f t="shared" si="11"/>
-        <v>70.483354468752978</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11">
-        <f t="shared" si="4"/>
-        <v>9.4324801113204018</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="5"/>
-        <v>9.92219683733091</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" si="6"/>
-        <v>9.9409091466800827</v>
-      </c>
-      <c r="Q16" s="11">
-        <f t="shared" si="0"/>
-        <v>10.455734186146826</v>
-      </c>
-      <c r="R16" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>2.4331199801068051</v>
-      </c>
-      <c r="S16" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.5578687091012906</v>
-      </c>
-      <c r="T16" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.5578687091012906</v>
-      </c>
-      <c r="U16" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>2.6890134422028389</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" si="12"/>
-        <v>72.124793240183692</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" si="13"/>
-        <v>23.331200437378662</v>
-      </c>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="C17" s="13">
-        <f t="shared" si="7"/>
-        <v>46.113596896508227</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="8"/>
         <v>89.39512122557322</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>80.545547015963749</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>7.8978954414662939</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="10"/>
+        <v>4.7615641967224924</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="5"/>
+        <v>26.382699766601718</v>
+      </c>
+      <c r="J17" s="11">
         <f t="shared" si="1"/>
-        <v>8.2873764231416498</v>
-      </c>
-      <c r="H17" s="12">
+        <v>16.083184634644699</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="11"/>
+        <v>35.806655158559138</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="12"/>
+        <v>78.978954414662937</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10">
+        <f t="shared" si="6"/>
+        <v>2.6890134422028389</v>
+      </c>
+      <c r="O17" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B17 + 0.05) + 3 * (W17 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>3.2302341258848717</v>
+      </c>
+      <c r="P17" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B17 + 0.05) + 3 * (W17 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>3.2509144259876126</v>
+      </c>
+      <c r="Q17" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B17 + 0.1) + 3 * (V17 + Таблица8[[#This Row],[k3]]))</f>
+        <v>3.9470937824333525</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="7"/>
+        <v>2.6890134422028389</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8268821095544454</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8268821095544454</v>
+      </c>
+      <c r="U17" s="10">
+        <f t="shared" si="4"/>
+        <v>2.9718194546370693</v>
+      </c>
+      <c r="V17" s="12"/>
+      <c r="W17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="8"/>
+        <v>55.053109019065552</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="9"/>
-        <v>5.9376359836216857</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="2"/>
-        <v>27.551142711627786</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="3"/>
-        <v>36.09929153755035</v>
-      </c>
-      <c r="K17" s="13">
-        <f t="shared" si="10"/>
-        <v>39.256179581324474</v>
-      </c>
-      <c r="L17" s="12">
-        <f t="shared" si="11"/>
-        <v>82.873764231416487</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11">
-        <f t="shared" si="4"/>
-        <v>10.456053986352178</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="5"/>
-        <v>10.99727467003421</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="6"/>
-        <v>11.017954970136952</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="0"/>
-        <v>11.586924631652742</v>
-      </c>
-      <c r="R17" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>2.6890134422028389</v>
-      </c>
-      <c r="S17" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.8268821095544454</v>
-      </c>
-      <c r="T17" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>2.8268821095544454</v>
-      </c>
-      <c r="U17" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>2.9718194546370693</v>
-      </c>
-      <c r="V17" s="13">
-        <f t="shared" si="12"/>
-        <v>82.060530951098556</v>
-      </c>
-      <c r="W17" s="11">
-        <f t="shared" si="13"/>
-        <v>25.890135147164465</v>
-      </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="7"/>
-        <v>55.053109019065552</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="8"/>
         <v>105.91821373672853</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>96.931984467691862</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12">
+      <c r="F18" s="10"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>9.240996440443352</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="10"/>
+        <v>5.5391004594183393</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="5"/>
+        <v>30.694808775967125</v>
+      </c>
+      <c r="J18" s="11">
         <f t="shared" si="1"/>
-        <v>9.7339631548016676</v>
-      </c>
-      <c r="H18" s="12">
+        <v>18.697582860465388</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="11"/>
+        <v>42.136384977653535</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="12"/>
+        <v>92.409964404433524</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10">
+        <f t="shared" si="6"/>
+        <v>2.9718194546370693</v>
+      </c>
+      <c r="O18" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B18 + 0.05) + 3 * (W18 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>3.5699608145034705</v>
+      </c>
+      <c r="P18" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B18 + 0.05) + 3 * (W18 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>3.5928160807540963</v>
+      </c>
+      <c r="Q18" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B18 + 0.1) + 3 * (V18 + Таблица8[[#This Row],[k3]]))</f>
+        <v>4.3622132592625489</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="7"/>
+        <v>2.9718194546370693</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="2"/>
+        <v>3.1241878963079097</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="3"/>
+        <v>3.1241878963079097</v>
+      </c>
+      <c r="U18" s="10">
+        <f t="shared" si="4"/>
+        <v>3.2843684350363205</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="8"/>
+        <v>65.644930392738402</v>
+      </c>
+      <c r="D19" s="12">
         <f t="shared" si="9"/>
-        <v>6.9329748666140079</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="2"/>
-        <v>32.17370891904207</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="3"/>
-        <v>42.138370575153949</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="10"/>
-        <v>46.368685784706145</v>
-      </c>
-      <c r="L18" s="12">
-        <f t="shared" si="11"/>
-        <v>97.339631548016669</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11">
-        <f t="shared" si="4"/>
-        <v>11.587278065539293</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="5"/>
-        <v>12.185419425405696</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" si="6"/>
-        <v>12.208274691656321</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="0"/>
-        <v>12.837083414830914</v>
-      </c>
-      <c r="R18" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>2.9718194546370693</v>
-      </c>
-      <c r="S18" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.1241878963079102</v>
-      </c>
-      <c r="T18" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.1241878963079102</v>
-      </c>
-      <c r="U18" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>3.2843684350363209</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="12"/>
-        <v>93.072770600823091</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" si="13"/>
-        <v>28.718195369674078</v>
-      </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="C19" s="13">
-        <f t="shared" si="7"/>
-        <v>65.644930392738402</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="8"/>
         <v>125.40596589708527</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>116.53183225177598</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12">
+      <c r="F19" s="10"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>10.802269935236666</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="10"/>
+        <v>6.4400967104866513</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="5"/>
+        <v>35.691178240746318</v>
+      </c>
+      <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>11.422205673806559</v>
-      </c>
-      <c r="H19" s="12">
+        <v>21.728399487494084</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="11"/>
+        <v>49.526433427584379</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="12"/>
+        <v>108.02269935236666</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10">
+        <f t="shared" si="6"/>
+        <v>3.28436843503632</v>
+      </c>
+      <c r="O19" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B19 + 0.05) + 3 * (W19 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>3.9454168708588861</v>
+      </c>
+      <c r="P19" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B19 + 0.05) + 3 * (W19 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>3.970675846443954</v>
+      </c>
+      <c r="Q19" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B19 + 0.1) + 3 * (V19 + Таблица8[[#This Row],[k3]]))</f>
+        <v>4.8209912325809547</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="7"/>
+        <v>3.28436843503632</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="2"/>
+        <v>3.4527616056034383</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="3"/>
+        <v>3.4527616056034383</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="4"/>
+        <v>3.6297884786477681</v>
+      </c>
+      <c r="V19" s="12"/>
+      <c r="W19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="8"/>
+        <v>78.18552698244693</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="9"/>
-        <v>8.0907328753186114</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="2"/>
-        <v>37.550985456455997</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="3"/>
-        <v>49.161701137004243</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="10"/>
-        <v>54.702154795413982</v>
-      </c>
-      <c r="L19" s="12">
-        <f t="shared" si="11"/>
-        <v>114.22205673806559</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11">
-        <f t="shared" si="4"/>
-        <v>12.837474019683794</v>
-      </c>
-      <c r="O19" s="11">
-        <f t="shared" si="5"/>
-        <v>13.498522455506361</v>
-      </c>
-      <c r="P19" s="11">
-        <f t="shared" si="6"/>
-        <v>13.523781431091431</v>
-      </c>
-      <c r="Q19" s="11">
-        <f t="shared" si="0"/>
-        <v>14.218722544976277</v>
-      </c>
-      <c r="R19" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>3.2843684350363205</v>
-      </c>
-      <c r="S19" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.4527616056034391</v>
-      </c>
-      <c r="T19" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.4527616056034391</v>
-      </c>
-      <c r="U19" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>3.6297884786477685</v>
-      </c>
-      <c r="V19" s="13">
-        <f t="shared" si="12"/>
-        <v>105.27472888657213</v>
-      </c>
-      <c r="W19" s="11">
-        <f t="shared" si="13"/>
-        <v>31.843685282158248</v>
-      </c>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="C20" s="13">
-        <f t="shared" si="7"/>
-        <v>78.18552698244693</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="8"/>
         <v>148.38381344994312</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>139.96591645505913</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>12.61649978156783</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="10"/>
+        <v>7.483931754751274</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="5"/>
+        <v>41.479287823351257</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="1"/>
-        <v>13.391707161172612</v>
-      </c>
-      <c r="H20" s="12">
+        <v>25.240771624971718</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="11"/>
+        <v>58.147616750446034</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="12"/>
+        <v>126.16499781567829</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10">
+        <f t="shared" si="6"/>
+        <v>3.6297884786477681</v>
+      </c>
+      <c r="O20" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B20 + 0.05) + 3 * (W20 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>4.3603599853582642</v>
+      </c>
+      <c r="P20" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B20 + 0.05) + 3 * (W20 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>4.3882754705952642</v>
+      </c>
+      <c r="Q20" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B20 + 0.1) + 3 * (V20 + Таблица8[[#This Row],[k3]]))</f>
+        <v>5.3280193065461425</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="7"/>
+        <v>3.6297884786477681</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="2"/>
+        <v>3.8158917135610992</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8158917135610992</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="4"/>
+        <v>4.0115366653675624</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="8"/>
+        <v>93.023908327441248</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="9"/>
-        <v>9.437143051201593</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="2"/>
-        <v>43.804909962165596</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="3"/>
-        <v>57.328131137535074</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="shared" si="10"/>
-        <v>64.458624069976565</v>
-      </c>
-      <c r="L20" s="12">
-        <f t="shared" si="11"/>
-        <v>133.9170716117261</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11">
-        <f t="shared" si="4"/>
-        <v>14.219154230100138</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" si="5"/>
-        <v>14.949725736810633</v>
-      </c>
-      <c r="P20" s="11">
-        <f t="shared" si="6"/>
-        <v>14.977641222047632</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" si="0"/>
-        <v>15.745669930888262</v>
-      </c>
-      <c r="R20" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>3.6297884786477685</v>
-      </c>
-      <c r="S20" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.8158917135610997</v>
-      </c>
-      <c r="T20" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>3.8158917135610997</v>
-      </c>
-      <c r="U20" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>4.0115366653675624</v>
-      </c>
-      <c r="V20" s="13">
-        <f t="shared" si="12"/>
-        <v>118.79152960954808</v>
-      </c>
-      <c r="W20" s="11">
-        <f t="shared" si="13"/>
-        <v>35.297885838174558</v>
-      </c>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="C21" s="13">
-        <f t="shared" si="7"/>
-        <v>93.023908327441248</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="8"/>
         <v>175.46926002332498</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>167.97367618763244</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12">
+      <c r="F21" s="10"/>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>14.723907131945987</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="10"/>
+        <v>8.6929864869070226</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="5"/>
+        <v>48.183258061205521</v>
+      </c>
+      <c r="J21" s="11">
         <f t="shared" si="1"/>
-        <v>15.688444731136684</v>
-      </c>
-      <c r="H21" s="12">
+        <v>29.309955554523864</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="11"/>
+        <v>68.19783251860558</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="12"/>
+        <v>147.23907131945987</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10">
+        <f t="shared" si="6"/>
+        <v>4.0115366653675606</v>
+      </c>
+      <c r="O21" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B21 + 0.05) + 3 * (W21 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>4.8189430481587099</v>
+      </c>
+      <c r="P21" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B21 + 0.05) + 3 * (W21 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>4.8497944306066127</v>
+      </c>
+      <c r="Q21" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B21 + 0.1) + 3 * (V21 + Таблица8[[#This Row],[k3]]))</f>
+        <v>5.8883719885403742</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="7"/>
+        <v>4.0115366653675606</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2172125483535758</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="3"/>
+        <v>4.2172125483535758</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4334336593583901</v>
+      </c>
+      <c r="V21" s="12"/>
+      <c r="W21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="8"/>
+        <v>110.57083432977375</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="9"/>
-        <v>11.00262208433673</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="2"/>
-        <v>51.076870858777617</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="3"/>
-        <v>66.821829110401723</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="10"/>
-        <v>75.873049176163676</v>
-      </c>
-      <c r="L21" s="12">
-        <f t="shared" si="11"/>
-        <v>156.88444731136684</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11">
-        <f t="shared" si="4"/>
-        <v>15.746147016732914</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="5"/>
-        <v>16.553553399524063</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" si="6"/>
-        <v>16.584404781971966</v>
-      </c>
-      <c r="Q21" s="11">
-        <f t="shared" si="0"/>
-        <v>17.433207775229818</v>
-      </c>
-      <c r="R21" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>4.0115366653675615</v>
-      </c>
-      <c r="S21" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>4.2172125483535767</v>
-      </c>
-      <c r="T21" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>4.2172125483535767</v>
-      </c>
-      <c r="U21" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>4.433433659358391</v>
-      </c>
-      <c r="V21" s="13">
-        <f t="shared" si="12"/>
-        <v>133.76145595599888</v>
-      </c>
-      <c r="W21" s="11">
-        <f t="shared" si="13"/>
-        <v>39.115367837884513</v>
-      </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="13">
-        <f t="shared" si="7"/>
-        <v>110.57083432977375</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="8"/>
         <v>207.38796918692492</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f xml:space="preserve"> (7 * EXP(SQRT(3) * Таблица2[[#This Row],[xi]]) - EXP(-Таблица2[[#This Row],[xi]] * SQRT(3))- 3*EXP(Таблица2[[#This Row],[xi]]))</f>
         <v>201.43574913115759</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>17.170995774040911</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="10"/>
+        <v>10.093107371130294</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="5"/>
+        <v>55.946420981481118</v>
+      </c>
+      <c r="J22" s="11">
         <f t="shared" si="1"/>
-        <v>18.365789872958352</v>
-      </c>
-      <c r="H22" s="12">
-        <f t="shared" si="9"/>
-        <v>12.822436119229302</v>
-      </c>
-      <c r="I22" s="12">
+        <v>34.022884478162489</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="11"/>
+        <v>79.906279328032085</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="12"/>
+        <v>171.7099577404091</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10">
+        <f t="shared" si="6"/>
+        <v>4.4334336593583901</v>
+      </c>
+      <c r="O22" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B22 + 0.05) + 3 * (W22 + Таблица8[[#This Row],[l1]] / 2))</f>
+        <v>5.3257557126878217</v>
+      </c>
+      <c r="P22" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B22 + 0.05) + 3 * (W22 + Таблица8[[#This Row],[l2]] / 2))</f>
+        <v>5.3598517633516725</v>
+      </c>
+      <c r="Q22" s="10">
+        <f xml:space="preserve"> 0.1 *  (6 * EXP(B22 + 0.1) + 3 * (V22 + Таблица8[[#This Row],[k3]]))</f>
+        <v>6.5076574765460924</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="7"/>
+        <v>4.4334336593583901</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="2"/>
-        <v>59.530803278233442</v>
-      </c>
-      <c r="J22" s="12">
+        <v>4.6607406637840629</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="3"/>
-        <v>77.856312549885672</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="shared" si="10"/>
-        <v>89.218582583900385</v>
-      </c>
-      <c r="L22" s="12">
-        <f t="shared" si="11"/>
-        <v>183.65789872958351</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11">
+        <v>4.6607406637840629</v>
+      </c>
+      <c r="U22" s="10">
         <f t="shared" si="4"/>
-        <v>17.433735036630761</v>
-      </c>
-      <c r="O22" s="11">
-        <f xml:space="preserve"> 0.1 *  (6 * EXP(B22 + 0.05) - (-3 * (W22 + R22 / 2)))</f>
-        <v>18.326057089960187</v>
-      </c>
-      <c r="P22" s="11">
-        <f t="shared" si="6"/>
-        <v>18.360153140624043</v>
-      </c>
-      <c r="Q22" s="11">
-        <f t="shared" si="0"/>
-        <v>19.298225523948179</v>
-      </c>
-      <c r="R22" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]])</f>
-        <v>4.433433659358391</v>
-      </c>
-      <c r="S22" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>4.6607406637840629</v>
-      </c>
-      <c r="T22" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.05)</f>
-        <v>4.6607406637840629</v>
-      </c>
-      <c r="U22" s="11">
-        <f xml:space="preserve"> 0.1 * 6 * EXP(Таблица2[[#This Row],[xi]] + 0.1)</f>
-        <v>4.8997019475405921</v>
-      </c>
-      <c r="V22" s="13">
-        <f t="shared" si="12"/>
-        <v>150.33733448182468</v>
-      </c>
-      <c r="W22" s="11">
-        <f t="shared" si="13"/>
-        <v>43.334337924241225</v>
-      </c>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+        <v>4.8997019475405912</v>
+      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
     </row>
-    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
+    <row r="23" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>3</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>5</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>0</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>-3</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>